--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -74,6 +74,30 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -104,7 +128,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 4:41 PM</t>
+    <t>Friday, 22 August, 2025 5:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -828,7 +852,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -837,66 +861,132 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>30</v>
       </c>
-      <c t="s" r="Q10" s="12">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>35</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>36</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>37</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>75.670000000000002</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>31</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
-        <v>32</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
-        <v>33</v>
-      </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>110.19</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>39</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>40</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>41</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -925,10 +1015,20 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -44,24 +44,45 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
     <t>20.7900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -74,6 +95,42 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
   </si>
   <si>
@@ -86,16 +143,37 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>2:2</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>63.0000</t>
   </si>
   <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
@@ -110,15 +188,39 @@
     <t>39.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -128,7 +230,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 5:19 PM</t>
+    <t>Friday, 22 August, 2025 5:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -835,7 +937,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -845,11 +947,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -861,14 +963,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -878,11 +980,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -894,14 +996,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -911,14 +1013,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -927,66 +1029,396 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>37</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>38</v>
       </c>
-      <c t="s" r="Q12" s="12">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>45</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>49</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>22</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>110.19</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>39</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
-        <v>40</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
-        <v>41</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>56</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>57</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>16</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>60</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>62</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>63</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>66</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>67</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>33</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>70</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>71</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>563.17999999999995</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>74</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>75</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1025,10 +1457,60 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -155,6 +155,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -188,6 +200,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -230,7 +251,25 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 5:59 PM</t>
+    <t>لبخه كوالين CREAM</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Friday, 22 August, 2025 6:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1185,7 +1224,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1194,14 +1233,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1211,14 +1250,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1227,14 +1266,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1244,7 +1283,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1267,7 +1306,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1277,11 +1316,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>31</v>
@@ -1293,14 +1332,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1310,14 +1349,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1326,14 +1365,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1347,7 +1386,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>31</v>
@@ -1359,66 +1398,198 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>72</v>
       </c>
-      <c t="s" r="Q22" s="12">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>73</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>563.17999999999995</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>73</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>74</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>75</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>33</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>77</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>78</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>80</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>33</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>77</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>81</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>83</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>33</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>77</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>84</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>698.73000000000002</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>86</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>87</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>88</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1507,10 +1678,30 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 6:18 PM</t>
+    <t>Friday, 22 August, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHACHYMOTRYPSIN 5MG 3 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>141.00</t>
   </si>
   <si>
@@ -65,9 +80,6 @@
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -110,9 +122,6 @@
     <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>95.00</t>
   </si>
   <si>
@@ -155,6 +164,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOKELAR  CREAM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -239,12 +260,30 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -263,13 +302,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>Friday, 22 August, 2025 6:30 PM</t>
+    <t>Friday, 22 August, 2025 6:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -960,7 +993,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -969,14 +1002,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -986,14 +1019,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1002,14 +1035,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1026,7 +1059,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1042,7 +1075,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1052,14 +1085,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1075,7 +1108,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1085,14 +1118,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1108,7 +1141,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1118,14 +1151,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1134,14 +1167,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1151,14 +1184,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1167,14 +1200,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1184,14 +1217,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1200,14 +1233,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1217,14 +1250,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1233,31 +1266,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1266,14 +1299,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1283,14 +1316,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1323,7 +1356,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1332,14 +1365,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1349,14 +1382,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1372,7 +1405,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1382,14 +1415,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1398,14 +1431,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1415,14 +1448,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1431,14 +1464,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1452,10 +1485,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1464,31 +1497,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1497,20 +1530,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1521,7 +1554,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1537,13 +1570,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1554,42 +1587,174 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>698.73000000000002</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>86</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>87</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>52</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>88</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>90</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>52</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>91</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>93</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>12</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>52</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>94</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>96</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>12</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>52</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>88</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>949.73000000000002</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>97</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>98</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>99</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1698,10 +1863,30 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 6:49 PM</t>
+    <t>Friday, 22 August, 2025 7:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -98,13 +98,16 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>3:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
@@ -128,6 +131,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -140,6 +152,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>10.0800</t>
+  </si>
+  <si>
     <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
   </si>
   <si>
@@ -179,9 +200,6 @@
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -200,9 +218,6 @@
     <t>46.0000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -281,15 +296,21 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>لبخه كوالين CREAM</t>
   </si>
   <si>
@@ -302,7 +323,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 7:00 PM</t>
+    <t>Friday, 22 August, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1092,7 +1113,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1101,7 +1122,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1118,14 +1139,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1134,7 +1155,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1151,14 +1172,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1167,14 +1188,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1191,7 +1212,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1250,14 +1271,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1266,31 +1287,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1299,14 +1320,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1316,14 +1337,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1332,31 +1353,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1365,14 +1386,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,14 +1403,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1398,14 +1419,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1415,14 +1436,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1431,7 +1452,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1448,14 +1469,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1464,14 +1485,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1481,14 +1502,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1504,7 +1525,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1514,14 +1535,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1530,14 +1551,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1547,14 +1568,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1563,14 +1584,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1580,14 +1601,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1596,31 +1617,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1629,31 +1650,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1662,31 +1683,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1695,7 +1716,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1708,53 +1729,152 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>949.73000000000002</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>98</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>12</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>59</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>99</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>98</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>99</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>100</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>12</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>59</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>101</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>103</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>12</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>59</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>93</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1035.6900000000001</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>104</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>105</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>106</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1883,10 +2003,25 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -275,6 +275,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -284,6 +293,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>جل صبار للبشره</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -323,7 +344,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 7:02 PM</t>
+    <t>Friday, 22 August, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1657,7 +1678,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1690,21 +1711,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>36</v>
@@ -1716,14 +1737,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1756,7 +1777,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1766,14 +1787,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1782,7 +1803,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1799,11 +1820,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>36</v>
@@ -1815,7 +1836,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1832,49 +1853,115 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>12</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>59</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>108</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1035.6900000000001</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>104</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>105</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>106</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>110</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>12</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>59</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>100</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1235.6900000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>111</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>112</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>113</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2018,10 +2105,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>CRYPTOPER 100MG/5ML PD. FOR ORAL SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -110,6 +122,12 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -119,9 +137,6 @@
     <t>62.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
   </si>
   <si>
@@ -143,9 +158,6 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -173,6 +185,18 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t xml:space="preserve">IROSPECT  SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -188,15 +212,6 @@
     <t xml:space="preserve">MOKELAR  CREAM</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -224,18 +239,21 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>SERETIDE INHAELER 125/25 MC</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
   </si>
   <si>
@@ -284,21 +302,36 @@
     <t>175.0000</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8379:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
   </si>
   <si>
     <t>جل صبار للبشره</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -323,15 +356,9 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>لبخه كوالين CREAM</t>
   </si>
   <si>
@@ -344,7 +371,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 7:07 PM</t>
+    <t>Friday, 22 August, 2025 7:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1117,7 +1144,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1127,14 +1154,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1143,14 +1170,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1183,7 +1210,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1193,14 +1220,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1209,14 +1236,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1226,14 +1253,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1242,14 +1269,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1259,14 +1286,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1275,14 +1302,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1292,14 +1319,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1308,14 +1335,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1325,11 +1352,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1341,14 +1368,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1358,14 +1385,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1374,31 +1401,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1407,31 +1434,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1440,14 +1467,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1457,14 +1484,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1473,31 +1500,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1506,14 +1533,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1523,14 +1550,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1539,14 +1566,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1556,11 +1583,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>36</v>
@@ -1572,14 +1599,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1589,14 +1616,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1605,31 +1632,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1638,14 +1665,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1655,14 +1682,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1671,14 +1698,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1688,14 +1715,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1704,14 +1731,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1721,14 +1748,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1737,31 +1764,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1770,31 +1797,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1803,31 +1830,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1836,31 +1863,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1869,31 +1896,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1902,66 +1929,264 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1235.6900000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>106</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>98</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>59</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>107</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>109</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>110</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>59</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>111</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c t="s" r="Q37" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>113</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>12</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>59</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>114</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>115</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>12</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>59</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>104</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>116</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>59</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>117</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>119</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>12</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>59</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>111</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1646.6900000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>120</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>121</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>122</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2115,10 +2340,40 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>46.5300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -86,6 +98,18 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -104,9 +128,6 @@
     <t>39.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -119,9 +140,6 @@
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -197,6 +215,12 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -212,6 +236,18 @@
     <t xml:space="preserve">MOKELAR  CREAM</t>
   </si>
   <si>
+    <t xml:space="preserve">MOTOTAB  50TABS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -296,9 +332,6 @@
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>175.00</t>
-  </si>
-  <si>
     <t>175.0000</t>
   </si>
   <si>
@@ -329,6 +362,27 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>44:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>جل صبار للبشره</t>
   </si>
   <si>
@@ -356,22 +410,25 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>لبخه كوالين CREAM</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 7:08 PM</t>
+    <t>Friday, 22 August, 2025 7:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1078,7 +1135,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1088,11 +1145,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -1104,7 +1161,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1121,11 +1178,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1137,14 +1194,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1154,14 +1211,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1170,14 +1227,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1194,7 +1251,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1203,14 +1260,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1220,14 +1277,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1243,7 +1300,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1253,14 +1310,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1269,14 +1326,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1286,14 +1343,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1309,7 +1366,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1326,7 +1383,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1342,7 +1399,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1359,7 +1416,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1375,7 +1432,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1385,14 +1442,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1408,7 +1465,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1418,11 +1475,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1434,31 +1491,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1467,14 +1524,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1484,14 +1541,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1500,7 +1557,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1513,18 +1570,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1533,14 +1590,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1550,14 +1607,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1590,7 +1647,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1606,24 +1663,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1632,20 +1689,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1656,7 +1713,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1672,7 +1729,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1682,14 +1739,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1698,14 +1755,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1715,14 +1772,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1731,14 +1788,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,14 +1805,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1764,31 +1821,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1797,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1814,14 +1871,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,14 +1904,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,14 +1920,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1880,14 +1937,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,14 +1953,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1913,14 +1970,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,7 +2010,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1969,24 +2026,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1995,31 +2052,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2028,31 +2085,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2061,28 +2118,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2094,31 +2151,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2127,66 +2184,297 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1646.6900000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>120</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>121</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>124</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>109</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>65</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>125</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>127</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>128</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>65</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>129</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>131</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>12</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>65</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>132</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>134</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>12</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>65</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>115</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>136</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>12</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>65</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>122</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>137</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>12</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>65</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>122</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>138</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>12</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>65</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>129</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2068.4000000000001</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>139</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>140</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>141</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2370,10 +2658,45 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -428,7 +428,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 7:14 PM</t>
+    <t>Friday, 22 August, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>46.5300</t>
   </si>
   <si>
+    <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -98,6 +110,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -107,7 +128,16 @@
     <t>81.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
   </si>
   <si>
     <t>COLOVATIL 30 F.C. TABS</t>
@@ -176,9 +206,6 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>3.8400</t>
   </si>
   <si>
@@ -191,6 +218,15 @@
     <t>10.0800</t>
   </si>
   <si>
+    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
   </si>
   <si>
@@ -287,9 +323,6 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
   </si>
   <si>
@@ -371,6 +404,15 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -428,7 +470,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 7:16 PM</t>
+    <t>Friday, 22 August, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1168,7 +1210,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1178,14 +1220,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1194,14 +1236,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1211,14 +1253,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1234,7 +1276,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1267,7 +1309,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1277,14 +1319,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1317,7 +1359,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1333,7 +1375,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1343,14 +1385,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1359,14 +1401,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1376,14 +1418,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1392,14 +1434,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1409,14 +1451,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1425,14 +1467,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1442,14 +1484,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1458,14 +1500,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1475,14 +1517,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1491,14 +1533,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1508,14 +1550,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1524,14 +1566,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1548,7 +1590,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1564,24 +1606,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1590,14 +1632,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,14 +1649,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,14 +1665,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1640,14 +1682,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1656,31 +1698,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1689,31 +1731,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1722,14 +1764,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1739,14 +1781,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1779,7 +1821,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1795,24 +1837,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1821,20 +1863,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1845,7 +1887,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1861,7 +1903,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1871,14 +1913,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,14 +1929,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1904,14 +1946,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1920,14 +1962,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,14 +1979,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1953,31 +1995,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1986,14 +2028,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2003,14 +2045,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2019,14 +2061,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2036,14 +2078,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2052,14 +2094,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,14 +2111,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2085,14 +2127,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2102,14 +2144,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2142,7 +2184,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2158,7 +2200,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2168,14 +2210,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,31 +2226,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,31 +2259,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2250,31 +2292,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2283,31 +2325,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2316,31 +2358,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2349,31 +2391,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2382,31 +2424,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2415,66 +2457,231 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2068.4000000000001</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>139</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>140</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>141</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>145</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>12</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>77</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>146</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>148</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>77</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>126</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>150</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>12</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>77</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>136</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>151</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>77</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>136</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>152</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>12</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>77</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>143</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2366.4000000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>153</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>154</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>155</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2693,10 +2900,35 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -446,6 +446,9 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -461,6 +464,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>55:0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -470,7 +485,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 7:18 PM</t>
+    <t>Friday, 22 August, 2025 7:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2497,7 +2512,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2507,14 +2522,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2523,7 +2538,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2540,14 +2555,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2556,7 +2571,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2573,14 +2588,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2596,7 +2611,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2606,14 +2621,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2622,7 +2637,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2639,49 +2654,115 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>156</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>12</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>77</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>136</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>157</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>77</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>143</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>144</v>
       </c>
-      <c t="s" r="Q53" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2366.4000000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>153</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>154</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>155</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2452.4000000000001</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>158</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>159</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>160</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2925,10 +3006,20 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -485,7 +485,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 7:20 PM</t>
+    <t>Friday, 22 August, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>BENGIRIDE 0.5 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -122,9 +134,6 @@
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>81.0000</t>
   </si>
   <si>
@@ -269,6 +278,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOKELAR  CREAM</t>
   </si>
   <si>
@@ -353,36 +374,30 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -485,7 +500,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 7:21 PM</t>
+    <t>Friday, 22 August, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1258,7 +1273,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1268,11 +1283,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1284,14 +1299,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1301,11 +1316,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1317,14 +1332,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1334,14 +1349,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1350,14 +1365,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1367,14 +1382,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1383,14 +1398,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1423,7 +1438,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1440,7 +1455,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1456,7 +1471,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1466,14 +1481,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1482,14 +1497,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1499,14 +1514,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1515,14 +1530,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1532,11 +1547,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>27</v>
@@ -1555,7 +1570,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1621,7 +1636,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1631,14 +1646,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1647,14 +1662,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1687,7 +1702,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1697,14 +1712,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1720,7 +1735,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1730,14 +1745,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1746,31 +1761,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1779,28 +1794,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>27</v>
@@ -1812,14 +1827,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1829,11 +1844,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>27</v>
@@ -1845,28 +1860,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>27</v>
@@ -1878,28 +1893,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1911,31 +1926,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1957,7 +1972,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1968,7 +1983,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1984,7 +1999,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1994,14 +2009,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2010,31 +2025,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2043,14 +2058,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2064,7 +2079,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>27</v>
@@ -2076,28 +2091,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>27</v>
@@ -2109,14 +2124,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,11 +2141,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>27</v>
@@ -2142,14 +2157,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2159,14 +2174,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2175,14 +2190,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2196,7 +2211,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2208,14 +2223,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2225,14 +2240,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2241,14 +2256,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2262,10 +2277,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2274,14 +2289,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2291,11 +2306,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>27</v>
@@ -2314,7 +2329,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2324,14 +2339,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2340,14 +2355,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2357,14 +2372,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2373,14 +2388,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2390,14 +2405,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2406,31 +2421,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2439,31 +2454,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2472,28 +2487,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>27</v>
@@ -2505,28 +2520,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>27</v>
@@ -2545,24 +2560,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2571,31 +2586,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2611,24 +2626,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2637,7 +2652,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2650,18 +2665,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2677,24 +2692,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2703,7 +2718,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2716,53 +2731,119 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2452.4000000000001</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>158</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>159</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>160</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>161</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>12</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>80</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>141</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>162</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>80</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>148</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2552.6999999999998</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>163</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>164</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>165</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3016,10 +3097,20 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -500,7 +500,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 7:23 PM</t>
+    <t>Friday, 22 August, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -461,6 +461,12 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>راجون اخضر 250مل</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
@@ -500,7 +506,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 7:24 PM</t>
+    <t>Friday, 22 August, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2593,7 +2599,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2603,11 +2609,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>27</v>
@@ -2619,14 +2625,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2636,14 +2642,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2652,7 +2658,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2669,14 +2675,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2692,7 +2698,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2702,14 +2708,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>57</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2718,14 +2724,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2735,14 +2741,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2751,7 +2757,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2784,7 +2790,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2801,49 +2807,82 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>164</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>12</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>80</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>148</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>149</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2552.6999999999998</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>163</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>164</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c t="s" r="Q58" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2587.6999999999998</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
         <v>165</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>166</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>167</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3107,10 +3146,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -167,6 +179,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -194,6 +218,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
   </si>
   <si>
@@ -248,6 +281,12 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>HYDROFUSIDIC CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">IROSPECT  SYRUP</t>
   </si>
   <si>
@@ -281,9 +320,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -413,9 +449,6 @@
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>168.0000</t>
   </si>
   <si>
@@ -428,6 +461,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -467,6 +512,15 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>ريكسونه رجالى</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
@@ -482,7 +536,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -506,7 +560,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 7:51 PM</t>
+    <t>Friday, 22 August, 2025 7:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1345,7 +1399,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1355,14 +1409,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1371,14 +1425,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1388,14 +1442,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1404,14 +1458,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1421,14 +1475,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1444,7 +1498,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1454,11 +1508,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1470,14 +1524,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1487,14 +1541,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1503,14 +1557,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1527,7 +1581,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1553,14 +1607,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1569,14 +1623,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1586,14 +1640,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1602,14 +1656,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1619,11 +1673,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>27</v>
@@ -1635,14 +1689,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1652,11 +1706,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>27</v>
@@ -1668,14 +1722,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1685,14 +1739,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1701,14 +1755,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1718,14 +1772,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1734,14 +1788,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1751,11 +1805,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>27</v>
@@ -1767,14 +1821,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1784,11 +1838,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1800,31 +1854,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1850,11 +1904,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>27</v>
@@ -1866,14 +1920,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1883,14 +1937,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1899,14 +1953,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1916,14 +1970,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1932,7 +1986,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1945,15 +1999,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>27</v>
@@ -1965,31 +2019,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2005,7 +2059,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2015,14 +2069,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2031,14 +2085,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2055,7 +2109,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2071,21 +2125,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>27</v>
@@ -2097,20 +2151,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2121,7 +2175,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2137,7 +2191,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2147,14 +2201,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2163,14 +2217,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2180,14 +2234,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2196,14 +2250,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2213,11 +2267,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2229,31 +2283,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2262,14 +2316,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2279,14 +2333,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2295,14 +2349,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2312,11 +2366,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>27</v>
@@ -2328,14 +2382,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2345,11 +2399,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>27</v>
@@ -2361,14 +2415,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2378,14 +2432,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2394,14 +2448,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2411,11 +2465,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2427,14 +2481,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2444,14 +2498,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2467,7 +2521,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2484,7 +2538,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2506,15 +2560,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>27</v>
@@ -2526,31 +2580,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2559,31 +2613,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2592,31 +2646,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2625,28 +2679,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -2658,31 +2712,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2691,31 +2745,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2724,31 +2778,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2757,28 +2811,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -2790,28 +2844,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -2823,66 +2877,264 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2587.6999999999998</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>165</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>166</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>167</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>171</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>12</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>93</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>172</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>174</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>12</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>93</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>143</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>176</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>177</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>93</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>178</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>180</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>12</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>93</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>156</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>181</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>12</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>93</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>156</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>182</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>93</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>163</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2785.6999999999998</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>183</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>184</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>185</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3151,10 +3403,40 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -368,6 +368,18 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>SERETIDE INHAELER 125/25 MC</t>
   </si>
   <si>
@@ -452,6 +464,15 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>ZITHROMAX 500MG 3 F.C. TAB</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -467,9 +488,6 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -480,9 +498,6 @@
   </si>
   <si>
     <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
   </si>
   <si>
     <t>جل صبار للبشره</t>
@@ -2290,24 +2305,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2316,28 +2331,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>27</v>
@@ -2349,14 +2364,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2366,11 +2381,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>27</v>
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2399,11 +2414,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>27</v>
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2432,14 +2447,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2455,7 +2470,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2465,14 +2480,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2498,14 +2513,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2514,14 +2529,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2531,11 +2546,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>27</v>
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2564,11 +2579,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>27</v>
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2597,14 +2612,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2620,7 +2635,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2630,14 +2645,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2663,14 +2678,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2679,20 +2694,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2719,24 +2734,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2762,11 +2777,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2795,11 +2810,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -2811,14 +2826,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2828,11 +2843,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -2844,14 +2859,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2884,7 +2899,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2894,11 +2909,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -2910,14 +2925,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2927,14 +2942,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2960,14 +2975,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2983,7 +2998,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2993,14 +3008,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3009,7 +3024,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3026,14 +3041,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3049,7 +3064,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3075,7 +3090,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3092,49 +3107,115 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2785.6999999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>183</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>184</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>185</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>186</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>12</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>93</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>162</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>187</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>12</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>93</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>168</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2960.6999999999998</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>188</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>189</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>190</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3433,10 +3514,20 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -575,7 +575,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 7:58 PM</t>
+    <t>Friday, 22 August, 2025 8:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -269,6 +269,9 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
     <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
   </si>
   <si>
@@ -341,6 +344,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">OCUSEELLERGE 0.1 FORTE  DROPS</t>
+  </si>
+  <si>
+    <t>44.50</t>
+  </si>
+  <si>
+    <t>44.5000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -575,7 +587,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 8:00 PM</t>
+    <t>Friday, 22 August, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1942,7 +1954,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1952,14 +1964,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1985,14 +1997,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2001,28 +2013,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>27</v>
@@ -2034,28 +2046,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>27</v>
@@ -2067,14 +2079,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2084,11 +2096,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>27</v>
@@ -2100,14 +2112,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2117,14 +2129,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2133,31 +2145,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2173,24 +2185,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2199,28 +2211,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2232,31 +2244,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2265,14 +2277,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2282,14 +2294,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2298,14 +2310,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2315,14 +2327,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2331,28 +2343,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>27</v>
@@ -2364,14 +2376,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2381,14 +2393,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2404,13 +2416,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2437,7 +2449,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2447,11 +2459,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>27</v>
@@ -2463,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2480,14 +2492,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2496,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2513,14 +2525,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2529,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2546,14 +2558,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2569,7 +2581,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2583,10 +2595,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2595,14 +2607,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2612,11 +2624,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>27</v>
@@ -2628,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2645,14 +2657,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2661,14 +2673,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2678,14 +2690,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>99</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2694,14 +2706,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2711,14 +2723,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2727,14 +2739,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2744,14 +2756,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2760,28 +2772,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -2793,31 +2805,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2826,28 +2838,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -2859,28 +2871,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -2892,28 +2904,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -2925,28 +2937,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -2958,28 +2970,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -2998,13 +3010,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3015,7 +3027,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3031,24 +3043,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3057,31 +3069,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3090,7 +3102,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3103,18 +3115,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3123,31 +3135,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3156,7 +3168,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3169,53 +3181,119 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2960.6999999999998</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>188</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>189</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>190</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>12</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>94</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>166</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>191</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>12</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>94</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>172</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3044.1999999999998</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>192</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>193</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>194</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3524,10 +3602,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -329,6 +329,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t xml:space="preserve">MEDIPHAZYME  TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>44.5000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOKELAR  CREAM</t>
   </si>
   <si>
@@ -350,9 +359,6 @@
     <t>44.50</t>
   </si>
   <si>
-    <t>44.5000</t>
-  </si>
-  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -362,6 +368,15 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -389,9 +404,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>SERETIDE INHAELER 125/25 MC</t>
   </si>
   <si>
@@ -455,39 +467,51 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8379:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>ZITHROMAX 500MG 3 F.C. TAB</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8379:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>ZITHROMAX 500MG 3 F.C. TAB</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -509,9 +533,6 @@
     <t>44:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>جل صبار للبشره</t>
   </si>
   <si>
@@ -587,7 +608,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 8:18 PM</t>
+    <t>Friday, 22 August, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2195,14 +2216,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2211,14 +2232,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2228,14 +2249,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2268,7 +2289,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2284,13 +2305,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2298,10 +2319,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2310,14 +2331,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2327,14 +2348,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2360,11 +2381,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>27</v>
@@ -2376,14 +2397,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2393,14 +2414,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2409,28 +2430,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>27</v>
@@ -2442,14 +2463,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2459,14 +2480,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2482,13 +2503,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2515,7 +2536,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,11 +2546,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>27</v>
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2558,14 +2579,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2574,14 +2595,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2591,14 +2612,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2607,14 +2628,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2624,14 +2645,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2661,10 +2682,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,11 +2711,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>27</v>
@@ -2706,14 +2727,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2723,14 +2744,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2739,14 +2760,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2756,14 +2777,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2789,14 +2810,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2805,14 +2826,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2822,14 +2843,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,28 +2859,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -2871,28 +2892,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -2904,31 +2925,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2954,11 +2975,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -2970,14 +2991,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2987,11 +3008,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3003,14 +3024,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3020,11 +3041,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3053,11 +3074,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>27</v>
@@ -3069,14 +3090,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3086,14 +3107,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3109,7 +3130,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3119,14 +3140,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3135,14 +3156,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3152,14 +3173,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3168,7 +3189,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3185,14 +3206,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3218,14 +3239,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3234,14 +3255,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3251,49 +3272,148 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3044.1999999999998</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>192</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>193</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>194</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>196</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>12</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>94</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>120</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>197</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>12</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>94</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>120</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>198</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>12</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>94</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>179</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3225.6999999999998</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>199</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>200</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>201</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3612,10 +3732,25 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -92,9 +107,6 @@
     <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -152,9 +164,6 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -170,6 +179,12 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>CRESTOLIP 20 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
     <t>CRYPTOPER 100MG/5ML PD. FOR ORAL SUSP. 60ML</t>
   </si>
   <si>
@@ -542,6 +557,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -593,9 +614,6 @@
     <t>55:0</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>21.0000</t>
   </si>
   <si>
@@ -608,7 +626,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 8:28 PM</t>
+    <t>Friday, 22 August, 2025 8:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1332,7 +1350,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1341,14 +1359,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1358,14 +1376,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1374,14 +1392,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1398,7 +1416,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1414,7 +1432,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1424,11 +1442,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1440,14 +1458,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1464,7 +1482,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1480,7 +1498,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1490,14 +1508,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1523,14 +1541,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1539,14 +1557,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1556,14 +1574,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1579,7 +1597,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1612,7 +1630,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1629,7 +1647,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1645,7 +1663,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1655,14 +1673,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1671,14 +1689,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1688,14 +1706,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1704,14 +1722,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1721,14 +1739,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1737,14 +1755,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1761,7 +1779,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1777,7 +1795,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1787,14 +1805,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1820,14 +1838,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1853,14 +1871,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1869,14 +1887,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1886,14 +1904,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1909,7 +1927,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1919,14 +1937,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1942,7 +1960,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1952,14 +1970,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1989,10 +2007,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2001,14 +2019,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2025,7 +2043,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2041,7 +2059,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2067,31 +2085,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2133,31 +2151,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2166,14 +2184,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2183,14 +2201,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2199,31 +2217,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2232,31 +2250,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2265,20 +2283,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2311,18 +2329,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2331,20 +2349,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2371,13 +2389,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2385,10 +2403,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2414,14 +2432,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2430,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2447,14 +2465,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2480,14 +2498,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2503,24 +2521,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2529,14 +2547,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2546,14 +2564,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2562,31 +2580,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2612,14 +2630,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2635,7 +2653,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2645,14 +2663,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2678,14 +2696,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2694,14 +2712,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2744,14 +2762,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2767,7 +2785,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2777,14 +2795,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2800,7 +2818,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2810,14 +2828,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2843,14 +2861,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2859,14 +2877,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2883,7 +2901,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2899,7 +2917,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2909,14 +2927,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2925,14 +2943,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2942,14 +2960,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2958,31 +2976,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2991,31 +3009,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3031,24 +3049,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3070,18 +3088,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3090,31 +3108,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3123,31 +3141,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3156,31 +3174,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3189,31 +3207,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3229,24 +3247,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3255,31 +3273,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3288,7 +3306,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3301,18 +3319,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3334,18 +3352,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3354,66 +3372,165 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3225.6999999999998</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>199</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>200</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>201</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>202</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>12</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>99</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>125</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>203</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>12</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>99</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>125</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>204</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>12</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>99</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>186</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3456.6999999999998</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>205</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>206</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>207</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3747,10 +3864,25 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ALPHACHYMOTRYPSIN 5MG 3 I.M. AMPS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -116,9 +131,6 @@
     <t>BENGIRIDE 0.5 MG 30 CAPS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>162.00</t>
   </si>
   <si>
@@ -215,9 +227,6 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -299,6 +308,15 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>HYDROFUSIDIC CREAM 20 GM</t>
   </si>
   <si>
@@ -344,6 +362,12 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEDIPHAZYME  TAB</t>
   </si>
   <si>
@@ -605,9 +629,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -626,7 +647,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 8:30 PM</t>
+    <t>Friday, 22 August, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1383,7 +1404,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1392,14 +1413,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1409,11 +1430,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>26</v>
@@ -1425,14 +1446,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1442,14 +1463,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1458,7 +1479,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1475,14 +1496,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1491,14 +1512,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1531,7 +1552,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1541,14 +1562,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1557,14 +1578,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1574,11 +1595,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1590,14 +1611,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1607,14 +1628,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1623,14 +1644,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1640,14 +1661,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1656,14 +1677,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1673,11 +1694,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1706,14 +1727,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1722,14 +1743,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1746,7 +1767,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1779,7 +1800,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1805,14 +1826,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1821,14 +1842,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1838,14 +1859,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1878,7 +1899,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1894,7 +1915,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1911,7 +1932,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1927,7 +1948,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1944,7 +1965,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1960,7 +1981,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1970,14 +1991,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2003,14 +2024,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2026,7 +2047,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2036,7 +2057,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2059,7 +2080,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2069,14 +2090,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2085,14 +2106,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2102,14 +2123,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2118,14 +2139,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2135,11 +2156,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -2151,20 +2172,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2191,7 +2212,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2224,13 +2245,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2241,7 +2262,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2257,7 +2278,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2283,20 +2304,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2307,7 +2328,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2323,21 +2344,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2349,31 +2370,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2389,13 +2410,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2403,7 +2424,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2415,31 +2436,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2448,20 +2469,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2488,24 +2509,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2514,14 +2535,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2531,11 +2552,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2564,14 +2585,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2580,20 +2601,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2604,7 +2625,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2620,7 +2641,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2630,14 +2651,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2646,14 +2667,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2663,11 +2684,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -2679,31 +2700,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,14 +2750,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2762,14 +2783,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2785,7 +2806,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2795,14 +2816,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2818,7 +2839,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2828,11 +2849,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>26</v>
@@ -2844,14 +2865,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2861,14 +2882,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2877,14 +2898,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2894,14 +2915,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2910,14 +2931,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2927,14 +2948,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2950,7 +2971,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2960,14 +2981,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2976,14 +2997,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3000,7 +3021,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3016,7 +3037,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3026,14 +3047,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3042,31 +3063,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3075,31 +3096,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3108,20 +3129,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3148,24 +3169,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3174,31 +3195,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3207,31 +3228,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3247,13 +3268,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3261,10 +3282,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3273,31 +3294,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3306,31 +3327,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3339,31 +3360,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3372,31 +3393,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3412,24 +3433,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3438,31 +3459,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3471,66 +3492,165 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3456.6999999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>205</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>206</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>207</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>209</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>18</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>105</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>133</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>210</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>18</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>105</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>133</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>211</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>18</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>105</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>194</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3645.96</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>212</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>213</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>214</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3879,10 +3999,25 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>46.5300</t>
   </si>
   <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>3:15</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>28.6000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
   </si>
   <si>
@@ -206,6 +218,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -326,9 +347,6 @@
     <t xml:space="preserve">IROSPECT  SYRUP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -368,6 +386,18 @@
     <t>150.00</t>
   </si>
   <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEDIPHAZYME  TAB</t>
   </si>
   <si>
@@ -434,6 +464,15 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>SALIBET OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>SELGON 20MG 20 TABS.</t>
   </si>
   <si>
@@ -647,7 +686,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 8:41 PM</t>
+    <t>Friday, 22 August, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1453,7 +1492,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1463,14 +1502,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1479,14 +1518,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1496,14 +1535,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1512,14 +1551,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1529,11 +1568,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>26</v>
@@ -1545,14 +1584,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1569,7 +1608,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1585,7 +1624,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1595,14 +1634,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1611,14 +1650,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1628,14 +1667,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1644,14 +1683,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1661,14 +1700,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1677,14 +1716,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1694,11 +1733,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1710,14 +1749,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1727,14 +1766,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1743,7 +1782,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1760,11 +1799,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>31</v>
@@ -1776,14 +1815,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1800,7 +1839,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1816,21 +1855,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1859,14 +1898,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1875,14 +1914,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1892,14 +1931,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1908,14 +1947,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1925,11 +1964,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>31</v>
@@ -1941,14 +1980,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1958,11 +1997,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>31</v>
@@ -1974,14 +2013,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1991,11 +2030,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>31</v>
@@ -2007,14 +2046,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2024,14 +2063,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2040,14 +2079,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2057,14 +2096,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2073,14 +2112,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2090,14 +2129,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2106,14 +2145,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2123,14 +2162,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2139,14 +2178,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2156,14 +2195,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2172,7 +2211,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2189,14 +2228,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2222,14 +2261,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2238,31 +2277,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2271,14 +2310,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2288,11 +2327,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>31</v>
@@ -2304,20 +2343,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2344,7 +2383,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2354,14 +2393,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2370,14 +2409,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2391,10 +2430,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2403,28 +2442,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2436,31 +2475,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2469,31 +2508,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2502,7 +2541,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2515,18 +2554,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2535,31 +2574,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2568,31 +2607,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2601,31 +2640,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2641,7 +2680,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2651,14 +2690,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2667,14 +2706,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2688,10 +2727,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2700,31 +2739,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2733,14 +2772,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2750,11 +2789,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -2766,14 +2805,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2783,11 +2822,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>31</v>
@@ -2799,14 +2838,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2816,14 +2855,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2832,31 +2871,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2865,14 +2904,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2882,14 +2921,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2898,14 +2937,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2915,11 +2954,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -2931,14 +2970,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2948,11 +2987,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>31</v>
@@ -2964,14 +3003,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2981,14 +3020,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2997,14 +3036,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3014,11 +3053,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3030,14 +3069,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3047,14 +3086,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>111</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3063,14 +3102,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3080,11 +3119,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3096,14 +3135,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3113,14 +3152,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3129,14 +3168,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3146,14 +3185,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3162,31 +3201,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3202,21 +3241,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>31</v>
@@ -3228,28 +3267,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>31</v>
@@ -3261,31 +3300,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3294,28 +3333,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>31</v>
@@ -3327,28 +3366,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3360,28 +3399,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3393,31 +3432,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3426,31 +3465,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3459,31 +3498,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3492,31 +3531,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3525,28 +3564,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -3558,7 +3597,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3571,18 +3610,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3591,7 +3630,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3604,53 +3643,185 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3645.96</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>212</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>213</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>214</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>219</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>220</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>70</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>204</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>222</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>18</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>70</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>143</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>223</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>18</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>70</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>143</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>224</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>18</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>70</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>207</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3777.48</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>225</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>226</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>227</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4014,10 +4185,30 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>BENGIRIDE 0.5 MG 30 CAPS.</t>
   </si>
   <si>
@@ -374,9 +386,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -668,6 +677,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -686,7 +698,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 8:50 PM</t>
+    <t>Friday, 22 August, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1558,7 +1570,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1568,14 +1580,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1584,14 +1596,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1601,11 +1613,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>26</v>
@@ -1617,14 +1629,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1641,7 +1653,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1657,7 +1669,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1667,14 +1679,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1683,14 +1695,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1700,14 +1712,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1716,14 +1728,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1733,14 +1745,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1749,14 +1761,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1766,11 +1778,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -1782,14 +1794,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1799,14 +1811,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1815,7 +1827,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1832,11 +1844,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>31</v>
@@ -1848,31 +1860,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1881,31 +1893,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1935,10 +1947,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1947,14 +1959,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1964,14 +1976,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1980,14 +1992,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1997,11 +2009,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>31</v>
@@ -2013,14 +2025,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2030,11 +2042,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>31</v>
@@ -2046,14 +2058,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2063,11 +2075,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>31</v>
@@ -2079,7 +2091,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2096,11 +2108,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>31</v>
@@ -2112,14 +2124,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2129,14 +2141,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2145,14 +2157,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2162,11 +2174,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>26</v>
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2211,7 +2223,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2228,11 +2240,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>31</v>
@@ -2244,14 +2256,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2261,14 +2273,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2284,7 +2296,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2294,11 +2306,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2343,28 +2355,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2376,28 +2388,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>31</v>
@@ -2409,14 +2421,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2426,7 +2438,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2449,7 +2461,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2459,14 +2471,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2492,11 +2504,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2508,20 +2520,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2529,10 +2541,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2541,20 +2553,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2565,7 +2577,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2587,18 +2599,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2607,31 +2619,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2640,20 +2652,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2661,10 +2673,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2673,31 +2685,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2713,7 +2725,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2730,7 +2742,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2746,7 +2758,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2756,14 +2768,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2772,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2789,14 +2801,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2822,7 +2834,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2845,7 +2857,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2855,14 +2867,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2878,24 +2890,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2911,21 +2923,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>31</v>
@@ -2937,14 +2949,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2954,11 +2966,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -2977,7 +2989,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2991,7 +3003,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>31</v>
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3024,10 +3036,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3057,10 +3069,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,7 +3131,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3142,7 +3154,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3152,14 +3164,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3185,11 +3197,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3234,14 +3246,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3251,14 +3263,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3274,7 +3286,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3307,7 +3319,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3317,14 +3329,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3333,31 +3345,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3379,15 +3391,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3399,28 +3411,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3439,13 +3451,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3453,10 +3465,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3465,20 +3477,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3486,10 +3498,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3498,20 +3510,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3519,7 +3531,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>31</v>
@@ -3531,28 +3543,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>31</v>
@@ -3571,21 +3583,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -3597,31 +3609,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3643,18 +3655,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>50</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3663,31 +3675,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>80</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3696,31 +3708,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3729,7 +3741,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3742,15 +3754,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>31</v>
@@ -3762,7 +3774,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3775,53 +3787,86 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3777.48</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>225</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>226</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>227</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>228</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>18</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>74</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>210</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3837.48</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>229</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>230</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>231</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4205,10 +4250,15 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -275,6 +275,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>DISPRELONE-D 20MG 20 DISPERSABLE TABS.</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>116.0000</t>
+  </si>
+  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -431,6 +440,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>MUCO S.R 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">OCUSEELLERGE 0.1 FORTE  DROPS</t>
   </si>
   <si>
@@ -467,6 +485,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -698,7 +725,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 8:55 PM</t>
+    <t>Friday, 22 August, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2065,7 +2092,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2098,7 +2125,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2164,7 +2191,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2174,14 +2201,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2207,7 +2234,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2230,7 +2257,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2240,14 +2267,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2273,11 +2300,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>31</v>
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2306,14 +2333,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2322,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2362,7 +2389,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,14 +2399,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2388,28 +2415,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>31</v>
@@ -2428,21 +2455,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>31</v>
@@ -2454,14 +2481,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2471,11 +2498,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2487,14 +2514,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2504,14 +2531,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2537,11 +2564,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2553,20 +2580,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2574,10 +2601,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2586,14 +2613,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2610,7 +2637,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2636,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2706,10 +2733,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,11 +2762,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -2751,28 +2778,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>31</v>
@@ -2791,7 +2818,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2817,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,7 +2861,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2857,7 +2884,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2883,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2904,10 +2931,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2916,24 +2943,24 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2956,7 +2983,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,11 +2993,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -2982,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3015,28 +3042,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>31</v>
@@ -3048,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3088,7 +3115,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3102,10 +3129,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,11 +3158,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3147,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,11 +3224,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3213,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3230,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3253,7 +3280,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3263,14 +3290,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>121</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,14 +3306,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3296,14 +3323,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3319,7 +3346,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3329,14 +3356,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,14 +3372,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3362,14 +3389,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3378,28 +3405,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3411,28 +3438,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3451,24 +3478,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3477,14 +3504,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3494,14 +3521,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>114</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3510,14 +3537,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3527,11 +3554,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>31</v>
@@ -3550,7 +3577,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3564,7 +3591,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>31</v>
@@ -3576,14 +3603,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3593,14 +3620,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3616,7 +3643,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3626,11 +3653,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>31</v>
@@ -3642,14 +3669,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3659,14 +3686,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>114</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3675,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3692,14 +3719,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>209</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3708,14 +3735,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3725,14 +3752,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3741,7 +3768,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3758,14 +3785,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3774,7 +3801,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3791,14 +3818,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3807,14 +3834,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3824,49 +3851,148 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3837.48</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>229</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>230</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>231</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>235</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>18</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>74</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>152</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>236</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>18</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>74</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>152</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>237</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>18</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>74</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>219</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4087.48</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>238</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>239</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>240</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4255,10 +4381,25 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -311,6 +311,9 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>EPICOGEL SUSP. 180ML</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -392,6 +395,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -707,6 +719,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -725,7 +743,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 9:00 PM</t>
+    <t>Friday, 22 August, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2224,7 +2242,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2250,14 +2268,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,11 +2285,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -2283,14 +2301,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,14 +2318,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,7 +2334,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2333,11 +2351,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>31</v>
@@ -2356,7 +2374,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2382,14 +2400,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,11 +2417,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2415,14 +2433,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2448,28 +2466,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>31</v>
@@ -2481,28 +2499,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2514,14 +2532,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2531,11 +2549,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>31</v>
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,14 +2598,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,11 +2615,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>26</v>
@@ -2620,24 +2638,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,28 +2664,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2679,14 +2697,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2719,7 +2737,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,11 +2747,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -2745,31 +2763,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,14 +2796,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2813,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2829,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,11 +2846,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -2844,28 +2862,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>31</v>
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2912,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,14 +2928,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,11 +2945,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>31</v>
@@ -2943,14 +2961,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,14 +2978,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2976,14 +2994,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,11 +3011,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -3009,14 +3027,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3044,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,7 +3060,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3055,15 +3073,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>31</v>
@@ -3075,14 +3093,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,14 +3110,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3115,13 +3133,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3148,7 +3166,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,11 +3176,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3174,14 +3192,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3209,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,14 +3225,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,14 +3242,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,14 +3258,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3275,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3280,7 +3298,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3294,10 +3312,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3324,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3341,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,14 +3357,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3374,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3390,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3407,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,14 +3423,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,14 +3440,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3456,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3473,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,14 +3489,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,14 +3506,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,28 +3522,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>31</v>
@@ -3537,31 +3555,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,11 +3605,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>31</v>
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,14 +3638,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>117</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,14 +3654,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,11 +3671,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>31</v>
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,14 +3704,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,14 +3720,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,11 +3737,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>31</v>
@@ -3735,14 +3753,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,11 +3770,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>31</v>
@@ -3775,7 +3793,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3792,7 +3810,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>117</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3808,7 +3826,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,14 +3836,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>218</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,14 +3852,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,14 +3869,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3867,7 +3885,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3884,14 +3902,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3917,11 +3935,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>31</v>
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3950,49 +3968,148 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4087.48</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>238</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>239</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>240</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>241</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>18</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>74</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>156</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>242</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>18</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>74</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>156</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>243</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>18</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>74</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>223</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4152.8800000000001</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>244</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>245</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>246</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4396,10 +4513,25 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ALKAPRIDE 50 MG 30 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALPHACHYMOTRYPSIN 5MG 3 I.M. AMPS</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>28.7100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -104,9 +116,6 @@
     <t>78.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -302,6 +311,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>EPICEPHIN 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -398,9 +416,6 @@
     <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>14.4000</t>
   </si>
   <si>
@@ -452,6 +467,12 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>MUCO S.R 75MG 20 CAPS.</t>
   </si>
   <si>
@@ -650,9 +671,6 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -743,7 +761,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 9:05 PM</t>
+    <t>Friday, 22 August, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1500,7 +1518,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1509,14 +1527,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1526,14 +1544,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1542,14 +1560,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1559,14 +1577,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1575,14 +1593,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1599,7 +1617,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1615,7 +1633,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1625,14 +1643,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1641,14 +1659,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1665,7 +1683,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1681,7 +1699,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1698,7 +1716,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1714,7 +1732,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1724,14 +1742,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1740,14 +1758,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1764,7 +1782,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1780,7 +1798,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1790,14 +1808,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1806,14 +1824,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1823,14 +1841,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1846,7 +1864,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1863,7 +1881,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1879,7 +1897,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1889,14 +1907,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1922,14 +1940,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1945,24 +1963,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1978,24 +1996,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2004,14 +2022,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2021,14 +2039,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2054,14 +2072,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2087,14 +2105,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2110,7 +2128,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2127,7 +2145,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2143,7 +2161,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2160,7 +2178,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2193,7 +2211,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2209,7 +2227,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2226,7 +2244,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2242,7 +2260,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2252,14 +2270,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2268,14 +2286,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2285,14 +2303,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2301,14 +2319,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2318,14 +2336,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2334,14 +2352,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2351,14 +2369,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2374,7 +2392,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2384,14 +2402,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2400,14 +2418,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2417,14 +2435,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2433,14 +2451,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2450,14 +2468,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2466,14 +2484,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2483,14 +2501,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2499,7 +2517,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2512,18 +2530,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2549,14 +2567,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2565,20 +2583,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2589,7 +2607,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2605,7 +2623,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2615,14 +2633,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2681,14 +2699,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2697,31 +2715,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2730,31 +2748,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2763,31 +2781,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2796,20 +2814,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2820,7 +2838,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2836,24 +2854,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2862,31 +2880,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2902,7 +2920,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2912,14 +2930,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2961,31 +2979,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3044,14 +3062,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3077,14 +3095,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3110,14 +3128,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3126,31 +3144,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3159,14 +3177,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3176,14 +3194,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3199,7 +3217,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3209,14 +3227,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3232,13 +3250,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3246,10 +3264,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3258,14 +3276,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3275,14 +3293,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3291,14 +3309,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3324,14 +3342,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3357,14 +3375,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3381,7 +3399,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3397,7 +3415,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3407,14 +3425,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3430,7 +3448,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3440,14 +3458,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3456,14 +3474,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3473,14 +3491,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3506,14 +3524,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3522,14 +3540,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3539,14 +3557,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3555,14 +3573,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3572,14 +3590,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3588,31 +3606,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3621,31 +3639,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3654,31 +3672,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3687,31 +3705,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>118</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3720,31 +3738,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3753,31 +3771,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3786,31 +3804,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3819,31 +3837,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3865,7 +3883,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3873,10 +3891,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>118</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3885,31 +3903,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3925,24 +3943,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3951,31 +3969,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3984,31 +4002,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>31</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4024,24 +4042,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4050,66 +4068,165 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4152.8800000000001</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>244</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>245</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>246</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>247</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>23</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>77</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>163</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>248</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>23</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>77</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>163</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>249</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>23</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>77</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>229</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4263.0799999999999</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>250</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>251</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>252</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4528,10 +4645,25 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -179,6 +179,12 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -332,6 +338,15 @@
     <t>EPICOGEL SUSP. 180ML</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -371,6 +386,15 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -482,6 +506,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">OCUSEELLERGE 0.1 FORTE  DROPS</t>
   </si>
   <si>
@@ -533,6 +566,15 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>SALIBET OINT. 30 GM</t>
   </si>
   <si>
@@ -617,6 +659,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>29.0400</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -761,7 +812,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 9:08 PM</t>
+    <t>Friday, 22 August, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1765,7 +1816,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1775,14 +1826,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1791,14 +1842,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1808,14 +1859,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1824,14 +1875,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1841,14 +1892,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1864,7 +1915,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1874,14 +1925,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1890,14 +1941,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1907,11 +1958,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1923,14 +1974,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1940,14 +1991,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1973,11 +2024,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1989,31 +2040,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2022,31 +2073,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2055,14 +2106,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2072,14 +2123,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2088,14 +2139,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2105,14 +2156,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2128,7 +2179,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2138,11 +2189,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2154,14 +2205,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2171,11 +2222,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2187,14 +2238,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2204,11 +2255,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2220,14 +2271,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2237,11 +2288,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2253,14 +2304,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2270,14 +2321,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2286,14 +2337,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2303,14 +2354,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2319,14 +2370,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2336,11 +2387,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2352,14 +2403,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2369,14 +2420,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2392,7 +2443,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2402,14 +2453,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2425,7 +2476,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2435,14 +2486,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2451,14 +2502,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2468,14 +2519,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2484,14 +2535,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2508,7 +2559,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2534,14 +2585,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2550,14 +2601,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2567,14 +2618,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2590,13 +2641,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2633,14 +2684,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2649,14 +2700,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2666,11 +2717,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2682,31 +2733,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2722,7 +2773,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2732,14 +2783,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2755,7 +2806,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2765,14 +2816,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2781,31 +2832,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2821,21 +2872,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2847,31 +2898,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2893,7 +2944,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2904,7 +2955,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2920,21 +2971,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2946,31 +2997,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2979,20 +3030,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3000,10 +3051,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3012,14 +3063,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,7 +3080,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3052,7 +3103,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3069,7 +3120,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3085,7 +3136,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3095,14 +3146,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3111,28 +3162,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3144,14 +3195,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3161,14 +3212,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3177,14 +3228,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3194,11 +3245,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3210,14 +3261,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3227,14 +3278,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3250,13 +3301,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3283,7 +3334,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3293,11 +3344,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3309,14 +3360,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3326,11 +3377,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3342,14 +3393,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3359,11 +3410,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3375,14 +3426,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,11 +3443,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3408,31 +3459,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3441,7 +3492,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3458,11 +3509,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3474,14 +3525,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3491,11 +3542,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3507,14 +3558,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3524,14 +3575,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3540,14 +3591,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3557,14 +3608,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3573,14 +3624,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3590,14 +3641,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>131</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3606,14 +3657,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3623,7 +3674,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3646,7 +3697,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3679,7 +3730,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3689,14 +3740,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3705,31 +3756,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3738,31 +3789,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3771,31 +3822,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3817,7 +3868,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3825,10 +3876,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,20 +3888,20 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3877,24 +3928,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3903,28 +3954,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3936,28 +3987,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3969,31 +4020,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4002,7 +4053,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4015,18 +4066,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>228</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4035,28 +4086,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4068,31 +4119,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4101,28 +4152,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>163</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4134,28 +4185,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4167,7 +4218,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4180,53 +4231,251 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4263.0799999999999</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>250</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>251</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>252</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>257</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>23</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>79</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>221</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>259</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>23</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>79</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>243</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>261</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>262</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>79</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>243</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>264</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>23</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>79</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>174</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>265</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>23</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>79</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>174</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>266</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>23</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>79</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>246</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4577.8999999999996</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>267</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>268</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>269</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4660,10 +4909,40 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -221,6 +221,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -272,9 +284,6 @@
     <t>3:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -668,6 +677,18 @@
     <t>29.0400</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -686,6 +707,15 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>ZITHROMAX 500MG 3 F.C. TAB</t>
   </si>
   <si>
@@ -713,9 +743,6 @@
     <t>100.00</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -812,7 +839,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 9:13 PM</t>
+    <t>Friday, 22 August, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1981,7 +2008,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1991,11 +2018,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -2007,14 +2034,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2024,14 +2051,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2040,7 +2067,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2057,11 +2084,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -2073,31 +2100,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2106,31 +2133,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2160,10 +2187,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2172,14 +2199,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2189,14 +2216,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2205,14 +2232,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2222,11 +2249,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2245,7 +2272,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2278,7 +2305,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2311,7 +2338,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2344,7 +2371,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2361,7 +2388,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2377,7 +2404,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2394,7 +2421,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2410,7 +2437,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2420,11 +2447,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2436,14 +2463,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2453,14 +2480,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2476,7 +2503,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2486,14 +2513,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2502,14 +2529,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2519,7 +2546,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2542,7 +2569,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2552,14 +2579,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2585,11 +2612,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2601,14 +2628,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2618,14 +2645,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2634,14 +2661,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2658,7 +2685,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2674,7 +2701,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2691,7 +2718,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2707,7 +2734,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2717,14 +2744,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2733,28 +2760,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2773,21 +2800,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2799,14 +2826,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2816,11 +2843,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2832,14 +2859,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2849,14 +2876,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2865,14 +2892,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2882,11 +2909,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2898,14 +2925,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2915,11 +2942,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2931,20 +2958,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2952,10 +2979,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2964,20 +2991,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2988,7 +3015,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3010,18 +3037,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3030,31 +3057,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3063,28 +3090,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3096,7 +3123,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3113,7 +3140,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3153,7 +3180,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3169,13 +3196,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3183,7 +3210,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3195,31 +3222,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3235,7 +3262,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3252,7 +3279,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3268,7 +3295,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3278,14 +3305,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3294,14 +3321,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3318,7 +3345,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3344,11 +3371,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3360,14 +3387,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3377,7 +3404,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3400,7 +3427,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3433,7 +3460,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3443,14 +3470,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3466,24 +3493,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3499,21 +3526,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3525,14 +3552,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3542,11 +3569,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3565,7 +3592,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3579,7 +3606,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3591,14 +3618,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3612,10 +3639,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3624,14 +3651,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3645,10 +3672,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3657,14 +3684,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3674,14 +3701,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3690,14 +3717,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3707,7 +3734,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3730,7 +3757,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3740,14 +3767,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3756,14 +3783,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3773,14 +3800,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3796,7 +3823,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3806,14 +3833,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3822,14 +3849,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3839,14 +3866,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3855,14 +3882,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3872,14 +3899,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3888,14 +3915,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3905,14 +3932,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3921,20 +3948,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3945,7 +3972,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3961,21 +3988,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3987,28 +4014,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4020,31 +4047,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4053,31 +4080,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4086,28 +4113,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4126,13 +4153,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4140,7 +4167,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4152,31 +4179,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4192,21 +4219,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4218,31 +4245,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4251,31 +4278,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>245</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4284,28 +4311,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4317,31 +4344,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4350,7 +4377,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4363,18 +4390,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4383,7 +4410,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4396,15 +4423,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4416,66 +4443,165 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4577.8999999999996</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>267</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>268</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>269</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>273</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>23</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>83</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>177</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>274</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>23</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>83</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>177</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>275</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>23</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>83</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>255</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4662.7299999999996</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>276</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>277</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>278</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4939,10 +5065,25 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -485,6 +485,12 @@
     <t>44.5000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOKELAR  CREAM</t>
   </si>
   <si>
@@ -575,6 +581,18 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -614,6 +632,15 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
   </si>
   <si>
@@ -827,9 +854,6 @@
     <t>55:0</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -839,7 +863,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 9:28 PM</t>
+    <t>Friday, 22 August, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3070,15 +3094,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3090,14 +3114,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3107,14 +3131,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3123,24 +3147,24 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3173,11 +3197,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3189,7 +3213,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3206,14 +3230,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3222,28 +3246,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3262,13 +3286,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3276,10 +3300,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3288,14 +3312,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3305,14 +3329,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3321,14 +3345,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3338,14 +3362,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3354,14 +3378,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3371,14 +3395,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3387,7 +3411,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3404,7 +3428,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3427,7 +3451,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3437,11 +3461,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3470,11 +3494,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3486,28 +3510,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3519,28 +3543,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3552,14 +3576,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3569,11 +3593,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3585,14 +3609,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3606,10 +3630,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3618,28 +3642,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3658,7 +3682,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3668,14 +3692,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3684,14 +3708,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3701,14 +3725,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3717,14 +3741,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3734,11 +3758,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3750,14 +3774,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3767,11 +3791,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3783,14 +3807,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3800,14 +3824,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3823,7 +3847,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3837,10 +3861,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3849,14 +3873,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3866,14 +3890,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3882,14 +3906,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3899,14 +3923,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3915,14 +3939,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3932,14 +3956,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>142</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3948,31 +3972,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3981,14 +4005,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3998,14 +4022,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4014,14 +4038,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4031,14 +4055,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4047,14 +4071,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4064,14 +4088,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4080,14 +4104,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4097,11 +4121,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4113,28 +4137,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4146,7 +4170,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4159,15 +4183,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4179,20 +4203,20 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4200,10 +4224,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4229,11 +4253,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4245,14 +4269,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4262,11 +4286,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>179</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4278,14 +4302,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4295,11 +4319,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4311,14 +4335,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4328,14 +4352,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4344,14 +4368,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4368,7 +4392,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4384,7 +4408,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4394,14 +4418,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>254</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4417,7 +4441,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4427,11 +4451,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4443,14 +4467,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>142</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4460,14 +4484,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4476,7 +4500,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4493,14 +4517,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4509,7 +4533,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4526,14 +4550,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>178</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4542,7 +4566,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4559,49 +4583,181 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4662.7299999999996</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>276</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>277</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>278</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>279</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>280</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>83</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>261</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>281</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>23</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>83</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>179</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>282</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>23</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>83</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>179</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>283</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>23</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>83</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>264</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>4782.5200000000004</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>284</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>285</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>286</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5080,10 +5236,30 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>COLLOMAK TOP. SOUTION 10 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -335,6 +344,18 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>EPICEPHIN 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -437,9 +458,6 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -521,6 +539,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -650,6 +677,15 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -863,7 +899,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 9:31 PM</t>
+    <t>Friday, 22 August, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2065,7 +2101,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2082,7 +2118,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2098,7 +2134,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2108,14 +2144,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2124,7 +2160,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2141,7 +2177,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2164,24 +2200,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2197,24 +2233,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2223,14 +2259,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2240,14 +2276,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2256,14 +2292,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2273,14 +2309,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2289,14 +2325,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2306,11 +2342,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2329,7 +2365,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2362,7 +2398,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2395,7 +2431,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2428,7 +2464,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2445,7 +2481,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2461,7 +2497,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2478,7 +2514,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2494,7 +2530,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2504,14 +2540,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2520,14 +2556,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2537,14 +2573,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2553,14 +2589,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2570,14 +2606,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2586,14 +2622,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2603,14 +2639,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2619,14 +2655,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2636,14 +2672,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2652,14 +2688,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2669,14 +2705,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2685,14 +2721,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2702,14 +2738,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2718,14 +2754,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2735,11 +2771,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2758,7 +2794,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2768,11 +2804,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2784,14 +2820,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2801,11 +2837,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2817,31 +2853,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2850,14 +2886,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2867,11 +2903,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2883,28 +2919,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2916,14 +2952,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2933,14 +2969,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2949,14 +2985,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2966,14 +3002,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2982,14 +3018,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2999,11 +3035,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3015,31 +3051,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3055,13 +3091,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3069,7 +3105,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3081,31 +3117,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3114,7 +3150,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3127,18 +3163,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3147,31 +3183,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3180,31 +3216,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3220,21 +3256,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3246,7 +3282,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3263,14 +3299,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3286,13 +3322,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3300,10 +3336,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3312,14 +3348,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3329,11 +3365,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3345,14 +3381,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3362,11 +3398,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3378,20 +3414,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3399,10 +3435,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3411,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3428,14 +3464,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3444,14 +3480,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3461,7 +3497,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3484,7 +3520,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3494,14 +3530,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3510,31 +3546,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3543,14 +3579,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3560,11 +3596,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3576,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3593,11 +3629,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3609,28 +3645,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3649,13 +3685,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3682,7 +3718,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3692,11 +3728,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3708,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3725,14 +3761,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3741,28 +3777,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3774,14 +3810,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3791,11 +3827,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3807,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3831,7 +3867,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3847,7 +3883,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3861,10 +3897,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3873,7 +3909,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3890,14 +3926,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3906,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3923,11 +3959,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3939,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3956,14 +3992,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3972,14 +4008,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3989,14 +4025,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4005,14 +4041,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4022,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4045,7 +4081,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4055,14 +4091,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4071,14 +4107,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4088,14 +4124,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>142</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4104,31 +4140,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4137,14 +4173,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4161,7 +4197,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4177,7 +4213,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4187,14 +4223,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4203,14 +4239,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4220,14 +4256,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4243,21 +4279,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4269,28 +4305,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4302,28 +4338,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4335,31 +4371,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4368,28 +4404,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4401,28 +4437,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4434,7 +4470,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4447,15 +4483,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4467,31 +4503,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4500,31 +4536,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4533,31 +4569,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>263</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4566,28 +4602,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4599,31 +4635,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4632,7 +4668,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4645,18 +4681,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4665,7 +4701,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4678,18 +4714,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4698,7 +4734,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4711,53 +4747,185 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>4782.5200000000004</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>284</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>285</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>286</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>291</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>292</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>86</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>273</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>293</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>23</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>86</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>188</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>294</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>23</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>86</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>188</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>295</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>23</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>86</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>276</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>4931.1000000000004</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>296</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>297</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>298</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5256,10 +5424,30 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -899,7 +899,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 9:33 PM</t>
+    <t>Friday, 22 August, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -197,6 +209,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -212,12 +233,21 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -377,6 +407,12 @@
     <t>23.0400</t>
   </si>
   <si>
+    <t>ESSENTIALE 300MG 30CAP</t>
+  </si>
+  <si>
+    <t>31.3500</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -437,9 +473,6 @@
     <t>HYDROFUSIDIC CREAM 20 GM</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">IROSPECT  SYRUP</t>
   </si>
   <si>
@@ -707,9 +740,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -740,6 +770,18 @@
     <t>29.0400</t>
   </si>
   <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -818,15 +860,21 @@
     <t>44:0</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>جل صبار للبشره</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -875,9 +923,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -899,7 +944,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 9:36 PM</t>
+    <t>Friday, 22 August, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1722,7 +1767,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1755,7 +1800,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1771,7 +1816,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1781,14 +1826,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1797,14 +1842,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1837,7 +1882,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1847,14 +1892,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1863,14 +1908,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1880,11 +1925,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1896,14 +1941,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1913,11 +1958,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1929,14 +1974,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1946,14 +1991,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1969,7 +2014,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1979,14 +2024,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1995,14 +2040,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2012,14 +2057,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2028,14 +2073,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2045,11 +2090,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2061,14 +2106,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2078,14 +2123,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2101,7 +2146,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2111,11 +2156,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -2127,14 +2172,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2144,7 +2189,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2167,7 +2212,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2177,14 +2222,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2193,7 +2238,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2210,11 +2255,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -2226,31 +2271,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2259,14 +2304,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2276,14 +2321,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2299,7 +2344,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2309,14 +2354,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2325,31 +2370,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2358,14 +2403,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2375,14 +2420,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2391,14 +2436,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2408,14 +2453,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2424,14 +2469,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2441,11 +2486,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2457,14 +2502,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2474,11 +2519,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2490,14 +2535,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2507,14 +2552,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2523,14 +2568,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2547,7 +2592,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2596,7 +2641,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2606,14 +2651,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2622,14 +2667,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2639,14 +2684,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2655,14 +2700,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,14 +2717,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2688,14 +2733,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2705,14 +2750,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2721,14 +2766,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2738,14 +2783,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2754,7 +2799,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2767,18 +2812,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2787,14 +2832,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2804,11 +2849,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2820,14 +2865,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2837,14 +2882,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2853,7 +2898,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2870,14 +2915,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2886,14 +2931,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2903,11 +2948,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2926,24 +2971,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2952,14 +2997,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2969,11 +3014,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2985,14 +3030,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3002,14 +3047,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3018,14 +3063,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3035,14 +3080,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3051,31 +3096,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3084,14 +3129,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3101,14 +3146,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3117,31 +3162,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3150,24 +3195,24 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3190,7 +3235,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3200,14 +3245,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3223,24 +3268,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3249,31 +3294,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3282,28 +3327,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3315,14 +3360,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3332,14 +3377,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3348,31 +3393,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3381,20 +3426,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3405,7 +3450,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3421,24 +3466,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3454,7 +3499,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3487,7 +3532,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3504,7 +3549,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3520,7 +3565,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,14 +3575,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3546,28 +3591,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3579,14 +3624,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3596,14 +3641,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3612,14 +3657,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3629,11 +3674,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3645,31 +3690,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3678,14 +3723,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3695,11 +3740,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3711,14 +3756,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3728,11 +3773,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3744,14 +3789,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3765,10 +3810,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3777,31 +3822,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3810,14 +3855,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3827,11 +3872,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3843,14 +3888,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,11 +3905,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3876,14 +3921,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,14 +3938,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3909,31 +3954,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3942,14 +3987,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,11 +4004,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3982,7 +4027,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,14 +4037,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4008,14 +4053,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4025,14 +4070,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4048,7 +4093,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4058,14 +4103,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4074,14 +4119,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4091,11 +4136,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4114,7 +4159,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4169,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4140,14 +4185,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,14 +4202,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4180,7 +4225,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,14 +4235,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4206,14 +4251,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4223,14 +4268,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4239,14 +4284,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4256,14 +4301,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4272,31 +4317,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4305,14 +4350,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,11 +4367,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4338,14 +4383,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4355,14 +4400,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4371,14 +4416,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4388,14 +4433,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4411,24 +4456,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>63</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4444,21 +4489,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4470,28 +4515,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4503,31 +4548,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>142</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4536,31 +4581,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4569,28 +4614,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4602,28 +4647,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4642,21 +4687,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4668,20 +4713,20 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4692,7 +4737,7 @@
         <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>142</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4701,7 +4746,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4714,18 +4759,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>275</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4734,28 +4779,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4767,31 +4812,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4800,28 +4845,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4833,28 +4878,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4866,7 +4911,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4879,53 +4924,251 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>4931.1000000000004</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>296</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>297</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>298</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>303</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>23</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>96</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>263</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>304</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>23</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>96</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>289</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>306</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>307</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>96</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>289</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>308</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>23</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>96</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>199</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>309</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>23</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>96</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>199</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>310</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>23</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>96</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>292</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5104.3699999999999</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>311</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>312</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>313</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5444,10 +5687,40 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -326,96 +326,96 @@
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>DISPRELONE-D 20MG 20 DISPERSABLE TABS.</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>116.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>EPICOGEL SUSP. 180ML</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>ESSENTIALE 300MG 30CAP</t>
+  </si>
+  <si>
+    <t>62.7000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>DISPRELONE-D 20MG 20 DISPERSABLE TABS.</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>116.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>EMETREX 20 TAB.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>EPICOGEL SUSP. 180ML</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>ESSENTIALE 300MG 30CAP</t>
-  </si>
-  <si>
-    <t>31.3500</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
     <t>3.8400</t>
   </si>
   <si>
@@ -494,7 +494,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>45.0000</t>
+    <t>90.0000</t>
   </si>
   <si>
     <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
@@ -503,6 +503,12 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -746,6 +752,9 @@
     <t>175.0000</t>
   </si>
   <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
@@ -923,6 +932,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -944,7 +956,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 9:59 PM</t>
+    <t>Friday, 22 August, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2476,7 +2488,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2490,10 +2502,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2502,7 +2514,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2519,11 +2531,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2535,7 +2547,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2552,11 +2564,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2568,7 +2580,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2585,11 +2597,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2601,7 +2613,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2618,11 +2630,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2634,7 +2646,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2651,11 +2663,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2667,14 +2679,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2684,11 +2696,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2700,7 +2712,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2717,11 +2729,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2733,7 +2745,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2766,7 +2778,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2783,11 +2795,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2816,14 +2828,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2832,14 +2844,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3169,7 +3181,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3186,7 +3198,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3235,7 +3247,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3245,11 +3257,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3268,7 +3280,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3278,11 +3290,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3301,24 +3313,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3360,7 +3372,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3373,18 +3385,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3406,15 +3418,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3426,14 +3438,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3443,14 +3455,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3459,24 +3471,24 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3509,11 +3521,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3525,14 +3537,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3542,11 +3554,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3575,14 +3587,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3591,28 +3603,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3631,13 +3643,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3645,10 +3657,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3657,14 +3669,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3674,14 +3686,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3707,14 +3719,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3723,14 +3735,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3740,14 +3752,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3756,7 +3768,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3773,7 +3785,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3796,7 +3808,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3806,11 +3818,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3822,31 +3834,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3855,31 +3867,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3888,14 +3900,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3905,11 +3917,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3921,14 +3933,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3938,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3954,20 +3966,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3975,10 +3987,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3987,28 +3999,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4020,14 +4032,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4037,11 +4049,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4053,14 +4065,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4070,11 +4082,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4086,14 +4098,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4103,14 +4115,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4119,14 +4131,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4136,14 +4148,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4159,7 +4171,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,14 +4181,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4185,14 +4197,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4202,14 +4214,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4218,14 +4230,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4235,14 +4247,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4258,7 +4270,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,11 +4280,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4284,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4317,14 +4329,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4334,14 +4346,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4350,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,14 +4379,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4383,14 +4395,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,14 +4412,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4416,14 +4428,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,14 +4445,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4449,14 +4461,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4466,14 +4478,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4482,31 +4494,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4515,14 +4527,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4532,14 +4544,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4548,28 +4560,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4581,14 +4593,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>23</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4598,14 +4610,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4614,28 +4626,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4647,31 +4659,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4680,14 +4692,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4697,11 +4709,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4713,14 +4725,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4730,11 +4742,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4746,14 +4758,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4763,14 +4775,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4786,7 +4798,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>32</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4796,11 +4808,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4812,14 +4824,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4829,14 +4841,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4845,14 +4857,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>122</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4862,11 +4874,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4878,14 +4890,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4895,11 +4907,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4911,14 +4923,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4928,14 +4940,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4944,14 +4956,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4961,14 +4973,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>263</v>
+        <v>24</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>291</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4977,7 +4989,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4994,14 +5006,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5017,7 +5029,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5027,14 +5039,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>105</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5060,11 +5072,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5076,14 +5088,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5093,14 +5105,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5109,7 +5121,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5126,49 +5138,115 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>292</v>
+        <v>201</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>293</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5104.3699999999999</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>311</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>312</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>313</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>23</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>96</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>201</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>314</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>23</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>96</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>295</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5263.7200000000003</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>315</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>316</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>317</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5717,10 +5795,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -122,12 +134,6 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -371,6 +377,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>DOZOVA FLEXETA 30 TAB</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>95.7000</t>
+  </si>
+  <si>
     <t>EMETREX 20 TAB.</t>
   </si>
   <si>
@@ -632,6 +647,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -668,6 +692,24 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>364.00</t>
+  </si>
+  <si>
+    <t>182.0000</t>
+  </si>
+  <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>SALIBET OINT. 30 GM</t>
   </si>
   <si>
@@ -767,9 +809,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>VIRECTA 100 MG 12 F.C.TABS.</t>
   </si>
   <si>
@@ -779,6 +818,15 @@
     <t>29.0400</t>
   </si>
   <si>
+    <t>VOLTAREN 1% EMULGEL 50 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
@@ -815,6 +863,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -956,7 +1013,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 10:21 PM</t>
+    <t>Friday, 22 August, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1805,14 +1862,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1821,14 +1878,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1838,14 +1895,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1854,14 +1911,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1871,14 +1928,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1887,14 +1944,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1904,11 +1961,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1920,14 +1977,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1937,14 +1994,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1953,14 +2010,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1970,11 +2027,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1986,14 +2043,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2003,7 +2060,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -2026,7 +2083,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2036,14 +2093,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2052,14 +2109,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2069,14 +2126,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2085,14 +2142,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2102,11 +2159,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2118,14 +2175,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2135,14 +2192,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2158,7 +2215,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2168,11 +2225,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -2184,14 +2241,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2201,14 +2258,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2224,7 +2281,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2234,11 +2291,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2250,14 +2307,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2267,14 +2324,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2283,14 +2340,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2300,14 +2357,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2316,14 +2373,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2333,14 +2390,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2366,11 +2423,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2382,31 +2439,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2415,31 +2472,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2448,14 +2505,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2465,14 +2522,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2488,7 +2545,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2498,14 +2555,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2514,14 +2571,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2531,14 +2588,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2547,14 +2604,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2564,11 +2621,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2580,14 +2637,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2597,11 +2654,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2613,14 +2670,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2630,11 +2687,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2646,14 +2703,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2663,14 +2720,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2679,14 +2736,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2696,11 +2753,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2712,7 +2769,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2725,18 +2782,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2745,14 +2802,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2762,14 +2819,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2778,14 +2835,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2795,14 +2852,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2811,31 +2868,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2851,7 +2908,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2861,14 +2918,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2884,24 +2941,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2910,14 +2967,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2927,14 +2984,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2943,14 +3000,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2960,14 +3017,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2976,14 +3033,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3000,7 +3057,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3016,7 +3073,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3026,11 +3083,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3042,14 +3099,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3059,11 +3116,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3075,14 +3132,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3092,11 +3149,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3108,31 +3165,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3141,14 +3198,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3158,11 +3215,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3181,13 +3238,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3198,7 +3255,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3214,7 +3271,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3224,14 +3281,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3247,7 +3304,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3257,14 +3314,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3273,14 +3330,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3290,11 +3347,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3306,14 +3363,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,11 +3380,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3339,31 +3396,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3372,28 +3429,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3405,31 +3462,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3451,18 +3508,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3471,31 +3528,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3511,24 +3568,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3537,20 +3594,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3577,7 +3634,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,11 +3644,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3603,7 +3660,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3620,14 +3677,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3636,31 +3693,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3676,7 +3733,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3693,7 +3750,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3709,13 +3766,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3723,7 +3780,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3735,14 +3792,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3752,14 +3809,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3768,14 +3825,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3785,11 +3842,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3801,14 +3858,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,14 +3875,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3841,7 +3898,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3858,7 +3915,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3874,24 +3931,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3900,14 +3957,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3917,11 +3974,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3933,14 +3990,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3950,11 +4007,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3966,28 +4023,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3999,28 +4056,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4032,14 +4089,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,14 +4106,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4065,28 +4122,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4098,14 +4155,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,11 +4172,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4131,14 +4188,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4148,11 +4205,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4164,28 +4221,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4197,14 +4254,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4214,14 +4271,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4230,14 +4287,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4247,14 +4304,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4263,14 +4320,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,11 +4337,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4296,14 +4353,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4313,14 +4370,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4329,14 +4386,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,11 +4403,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4362,14 +4419,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,14 +4436,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4395,14 +4452,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,14 +4469,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4428,14 +4485,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,11 +4502,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4461,14 +4518,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,14 +4535,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4494,14 +4551,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4511,14 +4568,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4527,14 +4584,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,14 +4601,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>121</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4560,31 +4617,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4593,14 +4650,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4610,11 +4667,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4626,14 +4683,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>32</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4643,11 +4700,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4659,14 +4716,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4676,11 +4733,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4692,31 +4749,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4732,24 +4789,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4758,31 +4815,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>65</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4791,28 +4848,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4824,7 +4881,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4837,18 +4894,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4857,28 +4914,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4890,31 +4947,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4923,28 +4980,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4956,28 +5013,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>121</v>
+        <v>304</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -4989,31 +5046,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5022,31 +5079,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>307</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5055,7 +5112,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5068,18 +5125,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5088,31 +5145,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5121,28 +5178,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5154,28 +5211,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>201</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5187,66 +5244,297 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>296</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>5263.7200000000003</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>322</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>23</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>98</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>323</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>325</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>23</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>98</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>282</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>327</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>23</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>98</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>311</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>329</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>330</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>98</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>311</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>331</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>23</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>98</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>206</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>332</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>23</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>98</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>206</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>333</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>23</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>98</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>314</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>315</v>
       </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>316</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>317</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c t="s" r="Q123" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>5911.9200000000001</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>334</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>335</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>336</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5805,10 +6093,45 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -701,6 +701,9 @@
     <t>182.0000</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
     <t>ROYAL ZAD</t>
   </si>
   <si>
@@ -788,6 +791,18 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -908,9 +923,6 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -1013,7 +1025,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 10:24 PM</t>
+    <t>Friday, 22 August, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4129,24 +4141,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4155,28 +4167,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4188,14 +4200,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4205,14 +4217,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4221,31 +4233,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4254,28 +4266,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4294,7 +4306,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,11 +4316,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4320,14 +4332,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4337,11 +4349,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4353,14 +4365,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4370,14 +4382,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4386,14 +4398,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,14 +4415,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4419,14 +4431,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,14 +4448,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4452,14 +4464,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,14 +4481,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4492,7 +4504,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4502,14 +4514,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4518,14 +4530,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,11 +4547,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,11 +4580,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4584,14 +4596,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4601,14 +4613,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4617,14 +4629,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,14 +4646,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4650,14 +4662,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4667,14 +4679,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4683,14 +4695,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4700,14 +4712,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4716,14 +4728,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4733,14 +4745,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4749,14 +4761,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4766,14 +4778,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4782,14 +4794,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4799,11 +4811,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4815,14 +4827,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4832,14 +4844,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4861,7 +4873,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4872,7 +4884,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4888,7 +4900,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4898,14 +4910,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4914,28 +4926,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4947,14 +4959,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4964,14 +4976,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4980,28 +4992,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>190</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5020,24 +5032,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5063,11 +5075,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5079,14 +5091,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5096,11 +5108,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>206</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5112,14 +5124,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5133,10 +5145,10 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5145,14 +5157,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5162,11 +5174,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5178,14 +5190,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5195,14 +5207,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5211,14 +5223,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5228,11 +5240,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5244,14 +5256,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5261,11 +5273,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5284,7 +5296,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5301,7 +5313,7 @@
         <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5317,7 +5329,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5327,14 +5339,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>282</v>
+        <v>24</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>326</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5343,7 +5355,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5360,14 +5372,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5383,7 +5395,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>330</v>
+        <v>23</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5393,14 +5405,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>139</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5426,11 +5438,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5442,14 +5454,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>23</v>
+        <v>334</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5459,14 +5471,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>18</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5475,7 +5487,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5492,49 +5504,115 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>314</v>
+        <v>206</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>315</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>5911.9200000000001</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>334</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>335</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>336</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>23</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>98</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>206</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>337</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>23</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>98</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>318</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>5973.6800000000003</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>338</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>339</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>340</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6128,10 +6206,20 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -1025,7 +1025,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 10:25 PM</t>
+    <t>Friday, 22 August, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CRESTOLIP 20 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -626,6 +635,18 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -638,150 +659,147 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>364.00</t>
+  </si>
+  <si>
+    <t>182.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>SALIBET OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>SERETIDE INHAELER 125/25 MC</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>46.0000</t>
   </si>
   <si>
-    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>364.00</t>
-  </si>
-  <si>
-    <t>182.0000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>ROYAL ZAD</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>SALIBET OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>SERETIDE INHAELER 125/25 MC</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>TRYPTIZOL 25MG 30 TAB</t>
   </si>
   <si>
-    <t>5:1</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -896,9 +914,6 @@
     <t>ZITHOTRAC 500 MG 3 TAB</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -947,9 +962,6 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>جل صبار للبشره</t>
   </si>
   <si>
@@ -995,9 +1007,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1025,7 +1034,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 10:30 PM</t>
+    <t>Friday, 22 August, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2425,7 +2434,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2435,14 +2444,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2451,7 +2460,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2468,7 +2477,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2491,24 +2500,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2524,24 +2533,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2550,14 +2559,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2567,14 +2576,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2583,14 +2592,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2600,14 +2609,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2616,14 +2625,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2633,14 +2642,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2656,7 +2665,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2689,7 +2698,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2722,7 +2731,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2755,7 +2764,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2772,7 +2781,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2788,13 +2797,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2821,21 +2830,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2847,14 +2856,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2871,7 +2880,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2887,7 +2896,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2897,11 +2906,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2913,14 +2922,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2930,14 +2939,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2953,21 +2962,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2979,31 +2988,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3029,7 +3038,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3052,7 +3061,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3095,11 +3104,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3111,14 +3120,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3128,14 +3137,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3144,14 +3153,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3168,7 +3177,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3184,7 +3193,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3201,7 +3210,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3217,7 +3226,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3227,14 +3236,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3243,28 +3252,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3283,21 +3292,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3309,14 +3318,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3326,14 +3335,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3349,7 +3358,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3359,14 +3368,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3375,14 +3384,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3392,11 +3401,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3408,14 +3417,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3425,11 +3434,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3441,14 +3450,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3458,11 +3467,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3474,20 +3483,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3495,10 +3504,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3507,20 +3516,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3531,7 +3540,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3553,18 +3562,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3573,7 +3582,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3586,15 +3595,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3606,31 +3615,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3639,28 +3648,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3672,7 +3681,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3689,7 +3698,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3712,7 +3721,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3745,7 +3754,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3762,7 +3771,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3778,13 +3787,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3792,7 +3801,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3804,31 +3813,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3844,7 +3853,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3861,7 +3870,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3894,7 +3903,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3910,7 +3919,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3927,7 +3936,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3943,7 +3952,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3960,7 +3969,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3976,7 +3985,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3986,14 +3995,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4019,11 +4028,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -4035,20 +4044,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4056,10 +4065,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4068,14 +4077,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4085,11 +4094,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4101,28 +4110,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>90</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4141,7 +4150,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4151,14 +4160,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4167,31 +4176,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4200,14 +4209,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4217,14 +4226,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4240,24 +4249,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4279,7 +4288,7 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4306,7 +4315,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4316,14 +4325,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4332,28 +4341,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4382,11 +4391,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4405,7 +4414,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4422,7 +4431,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4438,7 +4447,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4452,7 +4461,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4464,14 +4473,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4504,7 +4513,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4514,14 +4523,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4530,14 +4539,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4547,14 +4556,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4563,14 +4572,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4580,14 +4589,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4603,7 +4612,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4613,11 +4622,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4629,14 +4638,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4646,11 +4655,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4662,14 +4671,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4679,14 +4688,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4695,14 +4704,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4712,14 +4721,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4728,14 +4737,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4745,14 +4754,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4768,7 +4777,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>104</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4778,14 +4787,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4794,14 +4803,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4811,14 +4820,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4827,14 +4836,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4844,14 +4853,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4860,14 +4869,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4877,11 +4886,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4893,14 +4902,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>65</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4910,14 +4919,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4926,7 +4935,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4939,18 +4948,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4959,14 +4968,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4976,14 +4985,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4999,21 +5008,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>93</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5025,14 +5034,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5042,14 +5051,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5065,21 +5074,21 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>190</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5091,31 +5100,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5124,28 +5133,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5157,28 +5166,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>36</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5197,24 +5206,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>315</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5223,28 +5232,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>36</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5256,31 +5265,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5289,28 +5298,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>126</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5322,28 +5331,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5362,13 +5371,13 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
@@ -5379,7 +5388,7 @@
         <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5395,24 +5404,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>287</v>
+        <v>24</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>330</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5421,7 +5430,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5434,18 +5443,18 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>332</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5454,31 +5463,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>334</v>
+        <v>23</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>139</v>
+        <v>333</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5487,7 +5496,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5500,15 +5509,15 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>207</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5527,24 +5536,24 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>23</v>
+        <v>337</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>18</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5553,7 +5562,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5566,53 +5575,119 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>318</v>
+        <v>213</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>5973.6800000000003</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>338</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>339</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>23</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>101</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>213</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>340</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>23</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>101</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>322</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>6037.6800000000003</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>341</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>342</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>343</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6216,10 +6291,20 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -335,93 +335,108 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>DISPRELONE-D 20MG 20 DISPERSABLE TABS.</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>116.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DOZOVA FLEXETA 30 TAB</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>95.7000</t>
+  </si>
+  <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>EPICOGEL SUSP. 180ML</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
     <t>3:2</t>
   </si>
   <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>DISPRELONE-D 20MG 20 DISPERSABLE TABS.</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>116.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DOZOVA FLEXETA 30 TAB</t>
-  </si>
-  <si>
-    <t>290.00</t>
-  </si>
-  <si>
-    <t>95.7000</t>
-  </si>
-  <si>
-    <t>EMETREX 20 TAB.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>EPICOGEL SUSP. 180ML</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -578,9 +593,6 @@
     <t xml:space="preserve">MOTOTAB  50TABS</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>175.00</t>
   </si>
   <si>
@@ -875,13 +887,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -1016,7 +1025,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -1034,7 +1043,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 10:35 PM</t>
+    <t>Friday, 22 August, 2025 10:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2613,10 +2622,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2625,7 +2634,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2658,7 +2667,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2691,7 +2700,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2708,11 +2717,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2741,11 +2750,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2774,11 +2783,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2823,28 +2832,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2856,20 +2865,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2896,7 +2905,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2939,11 +2948,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2955,14 +2964,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2972,14 +2981,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2988,28 +2997,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3021,31 +3030,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3054,14 +3063,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3071,11 +3080,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3120,7 +3129,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3137,11 +3146,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -3153,14 +3162,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3203,14 +3212,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3219,14 +3228,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3236,14 +3245,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3269,14 +3278,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3285,28 +3294,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3318,28 +3327,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3368,14 +3377,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3384,14 +3393,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3401,14 +3410,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3417,14 +3426,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3434,11 +3443,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3467,11 +3476,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3500,11 +3509,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3516,31 +3525,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3566,14 +3575,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3582,7 +3591,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3595,18 +3604,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3615,7 +3624,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3628,15 +3637,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3681,28 +3690,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3714,7 +3723,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3731,11 +3740,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3764,11 +3773,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3797,14 +3806,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3813,28 +3822,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3846,31 +3855,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3919,7 +3928,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3945,14 +3954,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3962,14 +3971,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>189</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3978,14 +3987,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4044,7 +4053,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4061,11 +4070,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4094,11 +4103,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4110,31 +4119,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4143,31 +4152,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4176,14 +4185,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4193,14 +4202,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4226,11 +4235,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4242,31 +4251,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4275,28 +4284,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4308,14 +4317,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4329,10 +4338,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4341,31 +4350,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4374,28 +4383,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4407,14 +4416,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4424,11 +4433,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4440,14 +4449,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4457,11 +4466,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4473,14 +4482,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4490,14 +4499,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4506,14 +4515,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4523,14 +4532,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4539,14 +4548,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4556,14 +4565,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4572,14 +4581,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4589,14 +4598,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4605,14 +4614,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4622,14 +4631,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4645,7 +4654,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4655,11 +4664,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4671,14 +4680,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4688,11 +4697,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>193</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4704,14 +4713,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4721,11 +4730,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4737,7 +4746,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4754,14 +4763,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4770,14 +4779,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4791,10 +4800,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4803,14 +4812,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4820,14 +4829,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4836,14 +4845,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4893,7 +4902,7 @@
         <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4909,7 +4918,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4919,14 +4928,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4935,14 +4944,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4959,7 +4968,7 @@
         <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4975,7 +4984,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4985,14 +4994,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5001,31 +5010,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5034,7 +5043,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5047,11 +5056,11 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -5074,7 +5083,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5107,7 +5116,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5121,10 +5130,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5133,31 +5142,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>193</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5166,14 +5175,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5183,11 +5192,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5199,14 +5208,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5216,11 +5225,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5239,7 +5248,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5249,7 +5258,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5265,14 +5274,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5286,10 +5295,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5298,14 +5307,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5319,10 +5328,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5331,14 +5340,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5352,7 +5361,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>191</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5364,14 +5373,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5381,11 +5390,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>328</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5404,7 +5413,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5414,11 +5423,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>166</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5430,14 +5439,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5447,14 +5456,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>24</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5463,7 +5472,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5480,14 +5489,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>333</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5496,7 +5505,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5513,14 +5522,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>18</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5529,14 +5538,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5546,14 +5555,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5562,14 +5571,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>23</v>
+        <v>340</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5579,14 +5588,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>18</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5595,7 +5604,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5612,11 +5621,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5628,7 +5637,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5645,49 +5654,82 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>6037.6800000000003</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>341</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>342</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>343</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>23</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>101</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>325</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6120.3900000000003</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>344</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>345</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>346</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6301,10 +6343,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -242,13 +242,13 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>30:0</t>
+    <t>29:0</t>
   </si>
   <si>
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
+    <t>62.0000</t>
   </si>
   <si>
     <t>CETAL 500MG 20 TAB</t>
@@ -353,9 +353,6 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>DISPRELONE-D 20MG 20 DISPERSABLE TABS.</t>
   </si>
   <si>
@@ -1034,6 +1031,15 @@
     <t>55:0</t>
   </si>
   <si>
+    <t>شامبو بانتين 400 مل</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -1043,7 +1049,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 10:36 PM</t>
+    <t>Friday, 22 August, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2295,7 +2301,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2688,7 +2694,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2700,7 +2706,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2717,11 +2723,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2733,14 +2739,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2766,7 +2772,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2783,11 +2789,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2799,7 +2805,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2816,11 +2822,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2832,7 +2838,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2849,11 +2855,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2865,7 +2871,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2882,11 +2888,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2898,14 +2904,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2915,11 +2921,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2931,7 +2937,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2948,11 +2954,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2964,7 +2970,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2997,14 +3003,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3014,11 +3020,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3030,7 +3036,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3047,11 +3053,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3063,14 +3069,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3084,7 +3090,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3096,14 +3102,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3117,7 +3123,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3129,7 +3135,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3146,11 +3152,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -3162,7 +3168,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3195,14 +3201,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3212,11 +3218,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3228,7 +3234,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3245,11 +3251,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3261,7 +3267,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3278,11 +3284,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3294,7 +3300,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3327,7 +3333,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3344,11 +3350,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3360,7 +3366,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3381,7 +3387,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3393,7 +3399,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3410,11 +3416,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -3426,7 +3432,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3447,7 +3453,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3459,14 +3465,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3476,7 +3482,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3492,7 +3498,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3513,7 +3519,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3525,7 +3531,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3542,11 +3548,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3558,14 +3564,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3575,11 +3581,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3591,7 +3597,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3608,11 +3614,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3624,7 +3630,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3645,7 +3651,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3657,7 +3663,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3674,11 +3680,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3690,7 +3696,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3707,11 +3713,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3723,7 +3729,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3740,11 +3746,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3756,7 +3762,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3773,11 +3779,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3789,7 +3795,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3806,11 +3812,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3822,7 +3828,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3839,11 +3845,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3855,7 +3861,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3872,11 +3878,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3888,14 +3894,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3905,11 +3911,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3921,14 +3927,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3938,11 +3944,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3954,7 +3960,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3971,11 +3977,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3987,7 +3993,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4004,11 +4010,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>110</v>
@@ -4020,7 +4026,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4037,11 +4043,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4053,7 +4059,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4070,11 +4076,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -4086,7 +4092,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4107,7 +4113,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4119,14 +4125,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4136,11 +4142,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4152,7 +4158,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4185,7 +4191,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4202,11 +4208,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4218,7 +4224,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4235,11 +4241,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4251,7 +4257,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4284,7 +4290,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4301,11 +4307,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4317,7 +4323,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4334,11 +4340,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4350,14 +4356,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4367,11 +4373,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4383,7 +4389,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4400,11 +4406,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4416,7 +4422,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4449,7 +4455,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4466,11 +4472,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4482,7 +4488,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4499,11 +4505,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4515,7 +4521,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4532,11 +4538,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4548,7 +4554,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4565,11 +4571,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4581,14 +4587,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4598,11 +4604,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4614,7 +4620,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4635,7 +4641,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>26</v>
@@ -4647,14 +4653,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4664,11 +4670,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4680,7 +4686,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4697,11 +4703,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4713,7 +4719,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4730,11 +4736,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4746,7 +4752,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4763,11 +4769,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4779,7 +4785,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4796,11 +4802,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>26</v>
@@ -4812,7 +4818,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4829,11 +4835,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4845,7 +4851,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4862,11 +4868,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4878,14 +4884,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4895,11 +4901,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4911,14 +4917,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4928,11 +4934,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4944,14 +4950,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4961,11 +4967,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>26</v>
@@ -4977,7 +4983,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4994,11 +5000,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -5010,7 +5016,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5027,14 +5033,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5043,7 +5049,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5064,7 +5070,7 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5076,7 +5082,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5093,11 +5099,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5109,7 +5115,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5126,11 +5132,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5142,14 +5148,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5159,11 +5165,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5175,14 +5181,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5192,11 +5198,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5208,14 +5214,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5225,11 +5231,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5241,14 +5247,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5258,7 +5264,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5274,7 +5280,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5291,7 +5297,7 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
@@ -5307,7 +5313,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5324,7 +5330,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5340,14 +5346,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5357,11 +5363,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5373,7 +5379,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5390,11 +5396,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5406,14 +5412,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5423,11 +5429,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5439,14 +5445,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5460,7 +5466,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5472,7 +5478,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5489,11 +5495,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>36</v>
@@ -5505,7 +5511,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5522,14 +5528,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5538,7 +5544,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5555,14 +5561,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5571,14 +5577,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5588,14 +5594,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5604,7 +5610,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5621,11 +5627,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>217</v>
+        <v>341</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5637,7 +5643,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5654,11 +5660,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>18</v>
@@ -5670,7 +5676,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5687,49 +5693,82 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>326</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6120.3900000000003</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>344</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>345</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>23</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>101</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>324</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6331.3900000000003</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
         <v>346</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>347</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>348</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6348,10 +6387,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -197,6 +197,21 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BIOLEGAM60/100 TAB</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -314,9 +329,6 @@
     <t>DELAREX 5MG 30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>47.5200</t>
   </si>
   <si>
@@ -437,9 +449,6 @@
     <t>144.00</t>
   </si>
   <si>
-    <t>23.0400</t>
-  </si>
-  <si>
     <t>ESSENTIALE 300MG 30CAP</t>
   </si>
   <si>
@@ -884,10 +893,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>4:3</t>
+  </si>
+  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -1016,7 +1028,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1049,7 +1061,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 10:38 PM</t>
+    <t>Friday, 22 August, 2025 10:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2119,21 +2131,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -2145,14 +2157,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2162,14 +2174,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2228,11 +2240,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -2244,14 +2256,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2261,14 +2273,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2277,14 +2289,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2294,14 +2306,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2360,11 +2372,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2376,14 +2388,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2393,14 +2405,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2409,14 +2421,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2426,14 +2438,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2459,11 +2471,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2492,14 +2504,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2508,7 +2520,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2525,11 +2537,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2541,31 +2553,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2574,31 +2586,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2624,14 +2636,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2647,7 +2659,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2690,14 +2702,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2723,11 +2735,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2756,11 +2768,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2772,14 +2784,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2789,11 +2801,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2822,11 +2834,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2855,14 +2867,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2871,28 +2883,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2904,20 +2916,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2944,7 +2956,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2954,14 +2966,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2970,14 +2982,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2987,11 +2999,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3020,14 +3032,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3043,21 +3055,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3069,31 +3081,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3119,7 +3131,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3142,7 +3154,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3152,14 +3164,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3185,11 +3197,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3234,14 +3246,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3258,7 +3270,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3274,7 +3286,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3291,7 +3303,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3307,7 +3319,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3317,14 +3329,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3333,28 +3345,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3373,21 +3385,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3399,14 +3411,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3416,14 +3428,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3439,7 +3451,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3449,14 +3461,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3482,11 +3494,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3498,14 +3510,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3515,11 +3527,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3531,14 +3543,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3548,11 +3560,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3564,20 +3576,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3585,10 +3597,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3597,20 +3609,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3621,7 +3633,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3643,18 +3655,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3663,7 +3675,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3676,15 +3688,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3696,31 +3708,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3736,21 +3748,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3762,7 +3774,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3779,7 +3791,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3802,7 +3814,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3835,7 +3847,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3852,7 +3864,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3868,13 +3880,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3882,7 +3894,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3894,31 +3906,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3934,7 +3946,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3944,11 +3956,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3960,14 +3972,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3984,7 +3996,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4000,7 +4012,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4017,7 +4029,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>110</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4033,7 +4045,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4050,7 +4062,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4066,7 +4078,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4083,7 +4095,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4109,11 +4121,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4125,14 +4137,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4142,7 +4154,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4165,24 +4177,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4191,31 +4203,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4231,7 +4243,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4248,7 +4260,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4264,7 +4276,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4274,11 +4286,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4290,31 +4302,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4330,13 +4342,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4363,7 +4375,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4373,14 +4385,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4396,24 +4408,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4429,21 +4441,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>99</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4455,14 +4467,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4472,11 +4484,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4495,7 +4507,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4528,7 +4540,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4545,7 +4557,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4561,7 +4573,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4578,7 +4590,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4594,7 +4606,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4611,7 +4623,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4627,7 +4639,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4637,14 +4649,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4653,14 +4665,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,14 +4682,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>83</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4686,14 +4698,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4703,11 +4715,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4719,14 +4731,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4736,11 +4748,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4752,14 +4764,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4769,11 +4781,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4802,14 +4814,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4818,14 +4830,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4835,14 +4847,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4858,7 +4870,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4875,7 +4887,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4891,7 +4903,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4901,11 +4913,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4917,14 +4929,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4941,7 +4953,7 @@
         <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4974,7 +4986,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>26</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4990,7 +5002,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5000,14 +5012,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5016,14 +5028,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5033,14 +5045,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5049,31 +5061,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>93</v>
+        <v>260</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5082,7 +5094,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5095,15 +5107,15 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>98</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5115,14 +5127,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5132,11 +5144,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5148,14 +5160,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5165,14 +5177,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5181,31 +5193,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>196</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5214,28 +5226,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5247,28 +5259,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5280,28 +5292,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>36</v>
+        <v>321</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5313,31 +5325,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5346,31 +5358,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5386,21 +5398,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>327</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>194</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5412,28 +5424,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5445,28 +5457,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>24</v>
+        <v>333</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>170</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5478,31 +5490,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5511,7 +5523,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5524,18 +5536,18 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>335</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5544,7 +5556,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5557,18 +5569,18 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>337</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>132</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5577,31 +5589,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>339</v>
+        <v>23</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5610,31 +5622,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>342</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5643,7 +5655,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5656,15 +5668,15 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>216</v>
+        <v>345</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>217</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>18</v>
@@ -5676,7 +5688,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5689,15 +5701,15 @@
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5709,7 +5721,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5722,53 +5734,86 @@
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6331.3900000000003</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>346</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>347</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>348</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>349</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>23</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>64</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>328</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>6373.2600000000002</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>350</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>351</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>352</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6392,10 +6437,15 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -1061,7 +1061,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 10:40 PM</t>
+    <t>Friday, 22 August, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -902,6 +902,12 @@
     <t>50.4900</t>
   </si>
   <si>
+    <t>VONACIDAN 20 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -1061,7 +1067,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 10:43 PM</t>
+    <t>Friday, 22 August, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5002,7 +5008,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5012,14 +5018,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5028,14 +5034,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5045,14 +5051,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5061,14 +5067,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5078,14 +5084,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5101,24 +5107,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5140,15 +5146,15 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>98</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5160,14 +5166,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5177,11 +5183,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5193,14 +5199,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,14 +5216,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5233,24 +5239,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5276,11 +5282,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5309,11 +5315,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5325,14 +5331,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>36</v>
+        <v>323</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5342,7 +5348,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5358,14 +5364,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5375,14 +5381,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5398,7 +5404,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>23</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5408,14 +5414,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5424,14 +5430,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5441,11 +5447,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>197</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5464,7 +5470,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5478,7 +5484,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>334</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5490,7 +5496,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5507,11 +5513,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5523,14 +5529,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5540,14 +5546,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5573,14 +5579,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>339</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5606,14 +5612,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q125" s="12">
         <v>341</v>
-      </c>
-      <c t="s" r="Q125" s="12">
-        <v>136</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5629,7 +5635,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>343</v>
+        <v>23</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5639,14 +5645,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5662,7 +5668,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>23</v>
+        <v>345</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5672,14 +5678,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5688,7 +5694,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5705,11 +5711,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>219</v>
+        <v>347</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5721,7 +5727,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5754,7 +5760,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5771,49 +5777,82 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>328</v>
+        <v>219</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>6373.2600000000002</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>350</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>351</v>
       </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>23</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>64</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>330</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>6442.2600000000002</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
         <v>352</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>353</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>354</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6442,10 +6481,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -578,6 +578,15 @@
     <t>26.4000</t>
   </si>
   <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEDIPHAZYME  TAB</t>
   </si>
   <si>
@@ -596,6 +605,12 @@
     <t xml:space="preserve">MOKELAR  CREAM</t>
   </si>
   <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOTOTAB  50TABS</t>
   </si>
   <si>
@@ -611,6 +626,12 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>MUCO S.R 75MG 20 CAPS.</t>
   </si>
   <si>
@@ -707,6 +728,15 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>PRIMPERAN 10MG 10 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -923,9 +953,6 @@
     <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>105.00</t>
-  </si>
-  <si>
     <t>52.5000</t>
   </si>
   <si>
@@ -962,9 +989,6 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -1010,9 +1034,6 @@
     <t>راجون اخضر 250مل</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>ريكسونه رجالى</t>
   </si>
   <si>
@@ -1067,7 +1088,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 10:56 PM</t>
+    <t>Friday, 22 August, 2025 11:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3655,13 +3676,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3672,7 +3693,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3694,18 +3715,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3714,7 +3735,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3727,15 +3748,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3747,14 +3768,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3764,14 +3785,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3787,7 +3808,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3797,11 +3818,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3820,13 +3841,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3853,7 +3874,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3863,11 +3884,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3879,14 +3900,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3896,11 +3917,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3912,31 +3933,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3945,14 +3966,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3962,11 +3983,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3978,14 +3999,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3995,14 +4016,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4011,28 +4032,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -4044,14 +4065,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4061,14 +4082,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4077,14 +4098,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4094,11 +4115,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4110,14 +4131,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4127,11 +4148,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4143,14 +4164,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4160,14 +4181,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4176,14 +4197,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4193,14 +4214,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4209,31 +4230,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>96</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4242,14 +4263,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4259,7 +4280,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>95</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4282,7 +4303,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4299,7 +4320,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4315,7 +4336,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4325,14 +4346,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4341,14 +4362,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4358,14 +4379,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4381,7 +4402,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4414,7 +4435,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4424,11 +4445,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4447,24 +4468,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4473,28 +4494,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4513,7 +4534,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4546,7 +4567,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4556,14 +4577,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4579,13 +4600,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4596,7 +4617,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4612,7 +4633,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4622,11 +4643,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4638,14 +4659,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4655,14 +4676,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4671,14 +4692,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4688,14 +4709,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4711,7 +4732,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4721,14 +4742,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4737,14 +4758,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4754,7 +4775,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4777,7 +4798,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4787,14 +4808,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4803,7 +4824,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4820,14 +4841,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4843,7 +4864,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4853,14 +4874,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4869,14 +4890,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4886,14 +4907,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4902,14 +4923,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4919,11 +4940,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4942,7 +4963,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4952,11 +4973,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4968,14 +4989,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4985,14 +5006,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5001,14 +5022,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5018,14 +5039,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5034,14 +5055,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5051,14 +5072,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5067,14 +5088,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5084,14 +5105,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5100,14 +5121,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5117,14 +5138,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5133,7 +5154,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5146,18 +5167,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5166,14 +5187,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5190,7 +5211,7 @@
         <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5206,7 +5227,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5216,14 +5237,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>190</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5232,14 +5253,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>273</v>
+        <v>70</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5249,14 +5270,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5265,14 +5286,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>23</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5282,11 +5303,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>199</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5298,28 +5319,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5338,21 +5359,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>323</v>
+        <v>36</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5371,24 +5392,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5404,7 +5425,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>23</v>
+        <v>327</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5414,14 +5435,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>327</v>
+        <v>261</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5447,11 +5468,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>226</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5463,14 +5484,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>18</v>
+        <v>331</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5480,11 +5501,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5496,14 +5517,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5513,11 +5534,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>336</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5529,14 +5550,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5546,14 +5567,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5562,14 +5583,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>23</v>
+        <v>337</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5579,14 +5600,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>217</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5602,7 +5623,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5612,14 +5633,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>341</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5628,14 +5649,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5645,14 +5666,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
         <v>343</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5668,7 +5689,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>345</v>
+        <v>136</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5678,14 +5699,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>327</v>
+        <v>24</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>149</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5694,7 +5715,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5711,14 +5732,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>348</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5727,7 +5748,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5744,14 +5765,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>18</v>
+        <v>348</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5760,7 +5781,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5777,14 +5798,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5800,7 +5821,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>23</v>
+        <v>352</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5810,49 +5831,181 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>6442.2600000000002</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>352</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>353</v>
       </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>23</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>64</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
         <v>354</v>
       </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>355</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>356</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>23</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>64</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>226</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>357</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>23</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>64</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>226</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>358</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>23</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>64</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>338</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>6617.7600000000002</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>359</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>360</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>361</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6486,10 +6639,30 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -1088,7 +1088,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 11:13 PM</t>
+    <t>Friday, 22 August, 2025 11:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -836,6 +836,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -1088,7 +1097,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 11:21 PM</t>
+    <t>Friday, 22 August, 2025 11:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4765,13 +4774,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4782,7 +4791,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4798,7 +4807,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4815,7 +4824,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4831,7 +4840,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4841,14 +4850,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4857,14 +4866,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>36</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4874,14 +4883,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>83</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4890,14 +4899,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4907,11 +4916,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4923,14 +4932,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4940,11 +4949,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4956,14 +4965,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4973,11 +4982,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -5006,14 +5015,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5022,14 +5031,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5039,14 +5048,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5062,7 +5071,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5079,7 +5088,7 @@
         <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5095,7 +5104,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5105,11 +5114,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5121,14 +5130,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5138,14 +5147,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>114</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5154,14 +5163,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>23</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5175,10 +5184,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5187,14 +5196,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5208,10 +5217,10 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5220,14 +5229,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5237,14 +5246,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>190</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5253,14 +5262,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5270,14 +5279,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5286,31 +5295,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>98</v>
+        <v>270</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5319,7 +5328,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5332,11 +5341,11 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>98</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
@@ -5359,7 +5368,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5392,7 +5401,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>283</v>
+        <v>36</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5402,14 +5411,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>199</v>
+        <v>326</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5418,31 +5427,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5451,14 +5460,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5468,11 +5477,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5484,14 +5493,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5501,11 +5510,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>226</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5524,7 +5533,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>36</v>
+        <v>334</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5534,7 +5543,7 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
@@ -5550,14 +5559,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5571,10 +5580,10 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5583,14 +5592,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5604,10 +5613,10 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>339</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5616,14 +5625,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>18</v>
+        <v>340</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5633,11 +5642,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>206</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>202</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5649,14 +5658,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5666,11 +5675,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>342</v>
+        <v>206</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>343</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5699,11 +5708,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>24</v>
+        <v>345</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>173</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>18</v>
@@ -5715,14 +5724,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5732,14 +5741,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>346</v>
+        <v>24</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5748,7 +5757,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5765,14 +5774,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>348</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5781,7 +5790,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5798,14 +5807,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>136</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5814,14 +5823,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>352</v>
+        <v>23</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5831,14 +5840,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5847,14 +5856,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>23</v>
+        <v>355</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5864,14 +5873,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>355</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5897,11 +5906,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>226</v>
+        <v>357</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>227</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>18</v>
@@ -5913,7 +5922,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5946,7 +5955,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -5963,49 +5972,82 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>338</v>
+        <v>226</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>339</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>6617.7600000000002</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>359</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>360</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>361</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>23</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>64</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>341</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>6634.8549999999996</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>362</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>363</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>364</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6659,10 +6701,15 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-22_00-00.xlsx
+++ b/DaySale_2025-08-22_00-00.xlsx
@@ -1097,7 +1097,7 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>Friday, 22 August, 2025 11:22 PM</t>
+    <t>Friday, 22 August, 2025 11:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
